--- a/AAII_Financials/Yearly/EFR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/EFR_YR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -717,19 +717,19 @@
         <v>7500</v>
       </c>
       <c r="F8" s="3">
-        <v>40700</v>
+        <v>40400</v>
       </c>
       <c r="G8" s="3">
-        <v>39800</v>
+        <v>39500</v>
       </c>
       <c r="H8" s="3">
-        <v>70000</v>
+        <v>69500</v>
       </c>
       <c r="I8" s="3">
-        <v>78700</v>
+        <v>78100</v>
       </c>
       <c r="J8" s="3">
-        <v>59300</v>
+        <v>58900</v>
       </c>
       <c r="K8" s="3"/>
     </row>
@@ -741,22 +741,22 @@
         <v>5</v>
       </c>
       <c r="E9" s="3">
-        <v>5100</v>
+        <v>5000</v>
       </c>
       <c r="F9" s="3">
-        <v>18900</v>
+        <v>18800</v>
       </c>
       <c r="G9" s="3">
-        <v>24900</v>
+        <v>24700</v>
       </c>
       <c r="H9" s="3">
-        <v>45500</v>
+        <v>45200</v>
       </c>
       <c r="I9" s="3">
-        <v>48200</v>
+        <v>47900</v>
       </c>
       <c r="J9" s="3">
-        <v>38400</v>
+        <v>38100</v>
       </c>
       <c r="K9" s="3"/>
     </row>
@@ -768,22 +768,22 @@
         <v>5</v>
       </c>
       <c r="E10" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="F10" s="3">
-        <v>21800</v>
+        <v>21600</v>
       </c>
       <c r="G10" s="3">
-        <v>14900</v>
+        <v>14800</v>
       </c>
       <c r="H10" s="3">
-        <v>24500</v>
+        <v>24300</v>
       </c>
       <c r="I10" s="3">
-        <v>30400</v>
+        <v>30200</v>
       </c>
       <c r="J10" s="3">
-        <v>21000</v>
+        <v>20800</v>
       </c>
       <c r="K10" s="3"/>
     </row>
@@ -862,22 +862,22 @@
         <v>2100</v>
       </c>
       <c r="E14" s="3">
-        <v>18400</v>
+        <v>18300</v>
       </c>
       <c r="F14" s="3">
-        <v>5900</v>
+        <v>5800</v>
       </c>
       <c r="G14" s="3">
-        <v>9500</v>
+        <v>9400</v>
       </c>
       <c r="H14" s="3">
-        <v>8200</v>
+        <v>8100</v>
       </c>
       <c r="I14" s="3">
-        <v>84200</v>
+        <v>83600</v>
       </c>
       <c r="J14" s="3">
-        <v>103200</v>
+        <v>102500</v>
       </c>
       <c r="K14" s="3"/>
     </row>
@@ -898,10 +898,10 @@
         <v>4200</v>
       </c>
       <c r="H15" s="3">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="I15" s="3">
-        <v>6900</v>
+        <v>6800</v>
       </c>
       <c r="J15" s="3">
         <v>5000</v>
@@ -923,25 +923,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>33700</v>
+        <v>33500</v>
       </c>
       <c r="E17" s="3">
-        <v>59600</v>
+        <v>59200</v>
       </c>
       <c r="F17" s="3">
-        <v>68000</v>
+        <v>67600</v>
       </c>
       <c r="G17" s="3">
-        <v>76300</v>
+        <v>75800</v>
       </c>
       <c r="H17" s="3">
-        <v>119700</v>
+        <v>118900</v>
       </c>
       <c r="I17" s="3">
-        <v>181200</v>
+        <v>179900</v>
       </c>
       <c r="J17" s="3">
-        <v>170300</v>
+        <v>169100</v>
       </c>
       <c r="K17" s="3"/>
     </row>
@@ -950,25 +950,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-31600</v>
+        <v>-31400</v>
       </c>
       <c r="E18" s="3">
-        <v>-52000</v>
+        <v>-51700</v>
       </c>
       <c r="F18" s="3">
-        <v>-27300</v>
+        <v>-27100</v>
       </c>
       <c r="G18" s="3">
-        <v>-36500</v>
+        <v>-36200</v>
       </c>
       <c r="H18" s="3">
-        <v>-49700</v>
+        <v>-49400</v>
       </c>
       <c r="I18" s="3">
-        <v>-102500</v>
+        <v>-101800</v>
       </c>
       <c r="J18" s="3">
-        <v>-111000</v>
+        <v>-110200</v>
       </c>
       <c r="K18" s="3"/>
     </row>
@@ -1017,25 +1017,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-31100</v>
+        <v>-30800</v>
       </c>
       <c r="E21" s="3">
-        <v>-45400</v>
+        <v>-45100</v>
       </c>
       <c r="F21" s="3">
-        <v>-25500</v>
+        <v>-25300</v>
       </c>
       <c r="G21" s="3">
-        <v>-27300</v>
+        <v>-27000</v>
       </c>
       <c r="H21" s="3">
-        <v>-42800</v>
+        <v>-42400</v>
       </c>
       <c r="I21" s="3">
-        <v>-93200</v>
+        <v>-92400</v>
       </c>
       <c r="J21" s="3">
-        <v>-102400</v>
+        <v>-101500</v>
       </c>
       <c r="K21" s="3"/>
     </row>
@@ -1071,25 +1071,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-35500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-48500</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-32300</v>
+      </c>
+      <c r="G23" s="3">
         <v>-35700</v>
       </c>
-      <c r="E23" s="3">
-        <v>-48900</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-32500</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-35900</v>
-      </c>
       <c r="H23" s="3">
-        <v>-51100</v>
+        <v>-50800</v>
       </c>
       <c r="I23" s="3">
-        <v>-105600</v>
+        <v>-104900</v>
       </c>
       <c r="J23" s="3">
-        <v>-111000</v>
+        <v>-110200</v>
       </c>
       <c r="K23" s="3"/>
     </row>
@@ -1152,25 +1152,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-35500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-48500</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-32300</v>
+      </c>
+      <c r="G26" s="3">
         <v>-35700</v>
       </c>
-      <c r="E26" s="3">
-        <v>-48900</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-32500</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-35900</v>
-      </c>
       <c r="H26" s="3">
-        <v>-51100</v>
+        <v>-50800</v>
       </c>
       <c r="I26" s="3">
-        <v>-105600</v>
+        <v>-104900</v>
       </c>
       <c r="J26" s="3">
-        <v>-111100</v>
+        <v>-110400</v>
       </c>
       <c r="K26" s="3"/>
     </row>
@@ -1179,25 +1179,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-35600</v>
+        <v>-35400</v>
       </c>
       <c r="E27" s="3">
-        <v>-48700</v>
+        <v>-48400</v>
       </c>
       <c r="F27" s="3">
-        <v>-32400</v>
+        <v>-32200</v>
       </c>
       <c r="G27" s="3">
-        <v>-35600</v>
+        <v>-35400</v>
       </c>
       <c r="H27" s="3">
-        <v>-50600</v>
+        <v>-50200</v>
       </c>
       <c r="I27" s="3">
-        <v>-105500</v>
+        <v>-104700</v>
       </c>
       <c r="J27" s="3">
-        <v>-111100</v>
+        <v>-110400</v>
       </c>
       <c r="K27" s="3"/>
     </row>
@@ -1341,25 +1341,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-35600</v>
+        <v>-35400</v>
       </c>
       <c r="E33" s="3">
-        <v>-48700</v>
+        <v>-48400</v>
       </c>
       <c r="F33" s="3">
-        <v>-32400</v>
+        <v>-32200</v>
       </c>
       <c r="G33" s="3">
-        <v>-35600</v>
+        <v>-35400</v>
       </c>
       <c r="H33" s="3">
-        <v>-50600</v>
+        <v>-50200</v>
       </c>
       <c r="I33" s="3">
-        <v>-105500</v>
+        <v>-104700</v>
       </c>
       <c r="J33" s="3">
-        <v>-111100</v>
+        <v>-110400</v>
       </c>
       <c r="K33" s="3"/>
     </row>
@@ -1395,25 +1395,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-35600</v>
+        <v>-35400</v>
       </c>
       <c r="E35" s="3">
-        <v>-48700</v>
+        <v>-48400</v>
       </c>
       <c r="F35" s="3">
-        <v>-32400</v>
+        <v>-32200</v>
       </c>
       <c r="G35" s="3">
-        <v>-35600</v>
+        <v>-35400</v>
       </c>
       <c r="H35" s="3">
-        <v>-50600</v>
+        <v>-50200</v>
       </c>
       <c r="I35" s="3">
-        <v>-105500</v>
+        <v>-104700</v>
       </c>
       <c r="J35" s="3">
-        <v>-111100</v>
+        <v>-110400</v>
       </c>
       <c r="K35" s="3"/>
     </row>
@@ -1480,25 +1480,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>25900</v>
+        <v>25700</v>
       </c>
       <c r="E41" s="3">
-        <v>16400</v>
+        <v>16300</v>
       </c>
       <c r="F41" s="3">
-        <v>18800</v>
+        <v>18600</v>
       </c>
       <c r="G41" s="3">
-        <v>23800</v>
+        <v>23700</v>
       </c>
       <c r="H41" s="3">
-        <v>21700</v>
+        <v>21500</v>
       </c>
       <c r="I41" s="3">
-        <v>16600</v>
+        <v>16500</v>
       </c>
       <c r="J41" s="3">
-        <v>13400</v>
+        <v>13300</v>
       </c>
       <c r="K41" s="3"/>
     </row>
@@ -1513,7 +1513,7 @@
         <v>6200</v>
       </c>
       <c r="F42" s="3">
-        <v>34700</v>
+        <v>34500</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>5</v>
@@ -1549,7 +1549,7 @@
         <v>500</v>
       </c>
       <c r="I43" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="J43" s="3">
         <v>800</v>
@@ -1561,25 +1561,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>35400</v>
+        <v>35100</v>
       </c>
       <c r="E44" s="3">
-        <v>29300</v>
+        <v>29100</v>
       </c>
       <c r="F44" s="3">
-        <v>21200</v>
+        <v>21100</v>
       </c>
       <c r="G44" s="3">
-        <v>21200</v>
+        <v>21100</v>
       </c>
       <c r="H44" s="3">
-        <v>21500</v>
+        <v>21400</v>
       </c>
       <c r="I44" s="3">
-        <v>39300</v>
+        <v>39100</v>
       </c>
       <c r="J44" s="3">
-        <v>39200</v>
+        <v>38900</v>
       </c>
       <c r="K44" s="3"/>
     </row>
@@ -1615,25 +1615,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>67300</v>
+        <v>66800</v>
       </c>
       <c r="E46" s="3">
-        <v>55400</v>
+        <v>55000</v>
       </c>
       <c r="F46" s="3">
-        <v>78100</v>
+        <v>77500</v>
       </c>
       <c r="G46" s="3">
-        <v>55400</v>
+        <v>55000</v>
       </c>
       <c r="H46" s="3">
-        <v>46300</v>
+        <v>46000</v>
       </c>
       <c r="I46" s="3">
-        <v>62800</v>
+        <v>62400</v>
       </c>
       <c r="J46" s="3">
-        <v>56800</v>
+        <v>56400</v>
       </c>
       <c r="K46" s="3"/>
     </row>
@@ -1669,25 +1669,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>138300</v>
+        <v>137300</v>
       </c>
       <c r="E48" s="3">
-        <v>141900</v>
+        <v>141000</v>
       </c>
       <c r="F48" s="3">
-        <v>145400</v>
+        <v>144400</v>
       </c>
       <c r="G48" s="3">
-        <v>149600</v>
+        <v>148500</v>
       </c>
       <c r="H48" s="3">
-        <v>167000</v>
+        <v>165900</v>
       </c>
       <c r="I48" s="3">
-        <v>154000</v>
+        <v>153000</v>
       </c>
       <c r="J48" s="3">
-        <v>246600</v>
+        <v>244900</v>
       </c>
       <c r="K48" s="3"/>
     </row>
@@ -1711,10 +1711,10 @@
         <v>7400</v>
       </c>
       <c r="I49" s="3">
-        <v>11700</v>
+        <v>11600</v>
       </c>
       <c r="J49" s="3">
-        <v>10000</v>
+        <v>9900</v>
       </c>
       <c r="K49" s="3"/>
     </row>
@@ -1777,25 +1777,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>28400</v>
+        <v>28200</v>
       </c>
       <c r="E52" s="3">
-        <v>27200</v>
+        <v>27000</v>
       </c>
       <c r="F52" s="3">
-        <v>27500</v>
+        <v>27300</v>
       </c>
       <c r="G52" s="3">
-        <v>28400</v>
+        <v>28200</v>
       </c>
       <c r="H52" s="3">
-        <v>29700</v>
+        <v>29500</v>
       </c>
       <c r="I52" s="3">
-        <v>16600</v>
+        <v>16500</v>
       </c>
       <c r="J52" s="3">
-        <v>23300</v>
+        <v>23100</v>
       </c>
       <c r="K52" s="3"/>
     </row>
@@ -1831,25 +1831,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>235000</v>
+        <v>233400</v>
       </c>
       <c r="E54" s="3">
-        <v>225400</v>
+        <v>223800</v>
       </c>
       <c r="F54" s="3">
-        <v>252400</v>
+        <v>250600</v>
       </c>
       <c r="G54" s="3">
-        <v>237700</v>
+        <v>236100</v>
       </c>
       <c r="H54" s="3">
-        <v>252000</v>
+        <v>250200</v>
       </c>
       <c r="I54" s="3">
-        <v>246600</v>
+        <v>244900</v>
       </c>
       <c r="J54" s="3">
-        <v>164900</v>
+        <v>163800</v>
       </c>
       <c r="K54" s="3"/>
     </row>
@@ -1890,19 +1890,19 @@
         <v>2600</v>
       </c>
       <c r="F57" s="3">
-        <v>10200</v>
+        <v>10100</v>
       </c>
       <c r="G57" s="3">
-        <v>8300</v>
+        <v>8200</v>
       </c>
       <c r="H57" s="3">
-        <v>7400</v>
+        <v>7300</v>
       </c>
       <c r="I57" s="3">
-        <v>12200</v>
+        <v>12100</v>
       </c>
       <c r="J57" s="3">
-        <v>6100</v>
+        <v>6000</v>
       </c>
       <c r="K57" s="3"/>
     </row>
@@ -1914,16 +1914,16 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>21600</v>
+        <v>21500</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="H58" s="3">
-        <v>8100</v>
+        <v>8000</v>
       </c>
       <c r="I58" s="3">
         <v>4600</v>
@@ -1938,7 +1938,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>15200</v>
+        <v>15100</v>
       </c>
       <c r="E59" s="3">
         <v>4800</v>
@@ -1965,22 +1965,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>15800</v>
+        <v>15700</v>
       </c>
       <c r="E60" s="3">
-        <v>29000</v>
+        <v>28800</v>
       </c>
       <c r="F60" s="3">
-        <v>11400</v>
+        <v>11300</v>
       </c>
       <c r="G60" s="3">
-        <v>12700</v>
+        <v>12600</v>
       </c>
       <c r="H60" s="3">
-        <v>15500</v>
+        <v>15400</v>
       </c>
       <c r="I60" s="3">
-        <v>18100</v>
+        <v>18000</v>
       </c>
       <c r="J60" s="3">
         <v>8200</v>
@@ -1998,19 +1998,19 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>20400</v>
+        <v>20200</v>
       </c>
       <c r="G61" s="3">
-        <v>30900</v>
+        <v>30700</v>
       </c>
       <c r="H61" s="3">
-        <v>29800</v>
+        <v>29600</v>
       </c>
       <c r="I61" s="3">
-        <v>37100</v>
+        <v>36900</v>
       </c>
       <c r="J61" s="3">
-        <v>20200</v>
+        <v>20100</v>
       </c>
       <c r="K61" s="3"/>
     </row>
@@ -2019,25 +2019,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>17200</v>
+        <v>17000</v>
       </c>
       <c r="E62" s="3">
-        <v>28800</v>
+        <v>28600</v>
       </c>
       <c r="F62" s="3">
-        <v>34900</v>
+        <v>34600</v>
       </c>
       <c r="G62" s="3">
-        <v>30900</v>
+        <v>30700</v>
       </c>
       <c r="H62" s="3">
-        <v>29800</v>
+        <v>29600</v>
       </c>
       <c r="I62" s="3">
-        <v>12500</v>
+        <v>12400</v>
       </c>
       <c r="J62" s="3">
-        <v>26600</v>
+        <v>26400</v>
       </c>
       <c r="K62" s="3"/>
     </row>
@@ -2127,25 +2127,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>37700</v>
+        <v>37500</v>
       </c>
       <c r="E66" s="3">
-        <v>62600</v>
+        <v>62200</v>
       </c>
       <c r="F66" s="3">
-        <v>71400</v>
+        <v>70900</v>
       </c>
       <c r="G66" s="3">
-        <v>76300</v>
+        <v>75800</v>
       </c>
       <c r="H66" s="3">
-        <v>80000</v>
+        <v>79400</v>
       </c>
       <c r="I66" s="3">
-        <v>73000</v>
+        <v>72500</v>
       </c>
       <c r="J66" s="3">
-        <v>35600</v>
+        <v>35400</v>
       </c>
       <c r="K66" s="3"/>
     </row>
@@ -2275,25 +2275,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-510200</v>
+        <v>-506700</v>
       </c>
       <c r="E72" s="3">
-        <v>-474600</v>
+        <v>-471400</v>
       </c>
       <c r="F72" s="3">
-        <v>-425900</v>
+        <v>-423000</v>
       </c>
       <c r="G72" s="3">
-        <v>-393500</v>
+        <v>-390800</v>
       </c>
       <c r="H72" s="3">
-        <v>-361100</v>
+        <v>-358600</v>
       </c>
       <c r="I72" s="3">
-        <v>-310500</v>
+        <v>-308400</v>
       </c>
       <c r="J72" s="3">
-        <v>-199000</v>
+        <v>-197700</v>
       </c>
       <c r="K72" s="3"/>
     </row>
@@ -2383,25 +2383,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>197300</v>
+        <v>195900</v>
       </c>
       <c r="E76" s="3">
-        <v>162800</v>
+        <v>161700</v>
       </c>
       <c r="F76" s="3">
-        <v>181000</v>
+        <v>179700</v>
       </c>
       <c r="G76" s="3">
-        <v>161400</v>
+        <v>160300</v>
       </c>
       <c r="H76" s="3">
-        <v>172000</v>
+        <v>170800</v>
       </c>
       <c r="I76" s="3">
-        <v>173600</v>
+        <v>172400</v>
       </c>
       <c r="J76" s="3">
-        <v>129300</v>
+        <v>128400</v>
       </c>
       <c r="K76" s="3"/>
     </row>
@@ -2469,25 +2469,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-35600</v>
+        <v>-35400</v>
       </c>
       <c r="E81" s="3">
-        <v>-48700</v>
+        <v>-48400</v>
       </c>
       <c r="F81" s="3">
-        <v>-32400</v>
+        <v>-32200</v>
       </c>
       <c r="G81" s="3">
-        <v>-35600</v>
+        <v>-35400</v>
       </c>
       <c r="H81" s="3">
-        <v>-50600</v>
+        <v>-50200</v>
       </c>
       <c r="I81" s="3">
-        <v>-105500</v>
+        <v>-104700</v>
       </c>
       <c r="J81" s="3">
-        <v>-111100</v>
+        <v>-110400</v>
       </c>
       <c r="K81" s="3"/>
     </row>
@@ -2509,22 +2509,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="E83" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="F83" s="3">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="G83" s="3">
         <v>5900</v>
       </c>
       <c r="H83" s="3">
-        <v>5500</v>
+        <v>5400</v>
       </c>
       <c r="I83" s="3">
-        <v>10000</v>
+        <v>9900</v>
       </c>
       <c r="J83" s="3">
         <v>8700</v>
@@ -2671,25 +2671,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-41300</v>
+        <v>-41000</v>
       </c>
       <c r="E89" s="3">
-        <v>-56900</v>
+        <v>-56500</v>
       </c>
       <c r="F89" s="3">
-        <v>-10000</v>
+        <v>-9900</v>
       </c>
       <c r="G89" s="3">
-        <v>-13300</v>
+        <v>-13200</v>
       </c>
       <c r="H89" s="3">
-        <v>-15400</v>
+        <v>-15300</v>
       </c>
       <c r="I89" s="3">
         <v>-2700</v>
       </c>
       <c r="J89" s="3">
-        <v>-9900</v>
+        <v>-9800</v>
       </c>
       <c r="K89" s="3"/>
     </row>
@@ -2795,10 +2795,10 @@
         <v>4600</v>
       </c>
       <c r="E94" s="3">
-        <v>29000</v>
+        <v>28800</v>
       </c>
       <c r="F94" s="3">
-        <v>-25900</v>
+        <v>-25700</v>
       </c>
       <c r="G94" s="3">
         <v>1300</v>
@@ -2810,7 +2810,7 @@
         <v>4400</v>
       </c>
       <c r="J94" s="3">
-        <v>14300</v>
+        <v>14200</v>
       </c>
       <c r="K94" s="3"/>
     </row>
@@ -2940,19 +2940,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>46900</v>
+        <v>46600</v>
       </c>
       <c r="E100" s="3">
-        <v>26100</v>
+        <v>25900</v>
       </c>
       <c r="F100" s="3">
-        <v>27700</v>
+        <v>27500</v>
       </c>
       <c r="G100" s="3">
-        <v>13400</v>
+        <v>13300</v>
       </c>
       <c r="H100" s="3">
-        <v>28400</v>
+        <v>28300</v>
       </c>
       <c r="I100" s="3">
         <v>1800</v>
@@ -2994,7 +2994,7 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>10400</v>
+        <v>10300</v>
       </c>
       <c r="E102" s="3">
         <v>-1800</v>
@@ -3012,7 +3012,7 @@
         <v>3300</v>
       </c>
       <c r="J102" s="3">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="K102" s="3"/>
     </row>

--- a/AAII_Financials/Yearly/EFR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/EFR_YR_FIN.xlsx
@@ -720,13 +720,13 @@
         <v>40400</v>
       </c>
       <c r="G8" s="3">
-        <v>39500</v>
+        <v>39600</v>
       </c>
       <c r="H8" s="3">
         <v>69500</v>
       </c>
       <c r="I8" s="3">
-        <v>78100</v>
+        <v>78200</v>
       </c>
       <c r="J8" s="3">
         <v>58900</v>
@@ -871,7 +871,7 @@
         <v>9400</v>
       </c>
       <c r="H14" s="3">
-        <v>8100</v>
+        <v>8200</v>
       </c>
       <c r="I14" s="3">
         <v>83600</v>
@@ -938,10 +938,10 @@
         <v>118900</v>
       </c>
       <c r="I17" s="3">
-        <v>179900</v>
+        <v>180000</v>
       </c>
       <c r="J17" s="3">
-        <v>169100</v>
+        <v>169200</v>
       </c>
       <c r="K17" s="3"/>
     </row>
@@ -956,10 +956,10 @@
         <v>-51700</v>
       </c>
       <c r="F18" s="3">
-        <v>-27100</v>
+        <v>-27200</v>
       </c>
       <c r="G18" s="3">
-        <v>-36200</v>
+        <v>-36300</v>
       </c>
       <c r="H18" s="3">
         <v>-49400</v>
@@ -968,7 +968,7 @@
         <v>-101800</v>
       </c>
       <c r="J18" s="3">
-        <v>-110200</v>
+        <v>-110300</v>
       </c>
       <c r="K18" s="3"/>
     </row>
@@ -1026,7 +1026,7 @@
         <v>-25300</v>
       </c>
       <c r="G21" s="3">
-        <v>-27000</v>
+        <v>-27100</v>
       </c>
       <c r="H21" s="3">
         <v>-42400</v>
@@ -1035,7 +1035,7 @@
         <v>-92400</v>
       </c>
       <c r="J21" s="3">
-        <v>-101500</v>
+        <v>-101600</v>
       </c>
       <c r="K21" s="3"/>
     </row>
@@ -1089,7 +1089,7 @@
         <v>-104900</v>
       </c>
       <c r="J23" s="3">
-        <v>-110200</v>
+        <v>-110300</v>
       </c>
       <c r="K23" s="3"/>
     </row>
@@ -1194,7 +1194,7 @@
         <v>-50200</v>
       </c>
       <c r="I27" s="3">
-        <v>-104700</v>
+        <v>-104800</v>
       </c>
       <c r="J27" s="3">
         <v>-110400</v>
@@ -1356,7 +1356,7 @@
         <v>-50200</v>
       </c>
       <c r="I33" s="3">
-        <v>-104700</v>
+        <v>-104800</v>
       </c>
       <c r="J33" s="3">
         <v>-110400</v>
@@ -1410,7 +1410,7 @@
         <v>-50200</v>
       </c>
       <c r="I35" s="3">
-        <v>-104700</v>
+        <v>-104800</v>
       </c>
       <c r="J35" s="3">
         <v>-110400</v>
@@ -1486,7 +1486,7 @@
         <v>16300</v>
       </c>
       <c r="F41" s="3">
-        <v>18600</v>
+        <v>18700</v>
       </c>
       <c r="G41" s="3">
         <v>23700</v>
@@ -1615,7 +1615,7 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>66800</v>
+        <v>66900</v>
       </c>
       <c r="E46" s="3">
         <v>55000</v>
@@ -1669,16 +1669,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>137300</v>
+        <v>137400</v>
       </c>
       <c r="E48" s="3">
         <v>141000</v>
       </c>
       <c r="F48" s="3">
-        <v>144400</v>
+        <v>144500</v>
       </c>
       <c r="G48" s="3">
-        <v>148500</v>
+        <v>148600</v>
       </c>
       <c r="H48" s="3">
         <v>165900</v>
@@ -1687,7 +1687,7 @@
         <v>153000</v>
       </c>
       <c r="J48" s="3">
-        <v>244900</v>
+        <v>245000</v>
       </c>
       <c r="K48" s="3"/>
     </row>
@@ -1780,7 +1780,7 @@
         <v>28200</v>
       </c>
       <c r="E52" s="3">
-        <v>27000</v>
+        <v>27100</v>
       </c>
       <c r="F52" s="3">
         <v>27300</v>
@@ -1831,25 +1831,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>233400</v>
+        <v>233500</v>
       </c>
       <c r="E54" s="3">
-        <v>223800</v>
+        <v>223900</v>
       </c>
       <c r="F54" s="3">
-        <v>250600</v>
+        <v>250700</v>
       </c>
       <c r="G54" s="3">
-        <v>236100</v>
+        <v>236200</v>
       </c>
       <c r="H54" s="3">
-        <v>250200</v>
+        <v>250300</v>
       </c>
       <c r="I54" s="3">
-        <v>244900</v>
+        <v>245000</v>
       </c>
       <c r="J54" s="3">
-        <v>163800</v>
+        <v>163900</v>
       </c>
       <c r="K54" s="3"/>
     </row>
@@ -1899,7 +1899,7 @@
         <v>7300</v>
       </c>
       <c r="I57" s="3">
-        <v>12100</v>
+        <v>12200</v>
       </c>
       <c r="J57" s="3">
         <v>6000</v>
@@ -1920,10 +1920,10 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="H58" s="3">
-        <v>8000</v>
+        <v>8100</v>
       </c>
       <c r="I58" s="3">
         <v>4600</v>
@@ -2133,7 +2133,7 @@
         <v>62200</v>
       </c>
       <c r="F66" s="3">
-        <v>70900</v>
+        <v>71000</v>
       </c>
       <c r="G66" s="3">
         <v>75800</v>
@@ -2142,7 +2142,7 @@
         <v>79400</v>
       </c>
       <c r="I66" s="3">
-        <v>72500</v>
+        <v>72600</v>
       </c>
       <c r="J66" s="3">
         <v>35400</v>
@@ -2275,22 +2275,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-506700</v>
+        <v>-506900</v>
       </c>
       <c r="E72" s="3">
-        <v>-471400</v>
+        <v>-471500</v>
       </c>
       <c r="F72" s="3">
-        <v>-423000</v>
+        <v>-423100</v>
       </c>
       <c r="G72" s="3">
-        <v>-390800</v>
+        <v>-391000</v>
       </c>
       <c r="H72" s="3">
-        <v>-358600</v>
+        <v>-358700</v>
       </c>
       <c r="I72" s="3">
-        <v>-308400</v>
+        <v>-308500</v>
       </c>
       <c r="J72" s="3">
         <v>-197700</v>
@@ -2383,25 +2383,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>195900</v>
+        <v>196000</v>
       </c>
       <c r="E76" s="3">
         <v>161700</v>
       </c>
       <c r="F76" s="3">
-        <v>179700</v>
+        <v>179800</v>
       </c>
       <c r="G76" s="3">
-        <v>160300</v>
+        <v>160400</v>
       </c>
       <c r="H76" s="3">
-        <v>170800</v>
+        <v>170900</v>
       </c>
       <c r="I76" s="3">
-        <v>172400</v>
+        <v>172500</v>
       </c>
       <c r="J76" s="3">
-        <v>128400</v>
+        <v>128500</v>
       </c>
       <c r="K76" s="3"/>
     </row>
@@ -2484,7 +2484,7 @@
         <v>-50200</v>
       </c>
       <c r="I81" s="3">
-        <v>-104700</v>
+        <v>-104800</v>
       </c>
       <c r="J81" s="3">
         <v>-110400</v>
@@ -2674,7 +2674,7 @@
         <v>-41000</v>
       </c>
       <c r="E89" s="3">
-        <v>-56500</v>
+        <v>-56600</v>
       </c>
       <c r="F89" s="3">
         <v>-9900</v>

--- a/AAII_Financials/Yearly/EFR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/EFR_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>EFR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,129 +665,141 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2100</v>
+        <v>4200</v>
       </c>
       <c r="E8" s="3">
-        <v>7500</v>
+        <v>2200</v>
       </c>
       <c r="F8" s="3">
-        <v>40400</v>
+        <v>7700</v>
       </c>
       <c r="G8" s="3">
-        <v>39600</v>
+        <v>41400</v>
       </c>
       <c r="H8" s="3">
-        <v>69500</v>
+        <v>40500</v>
       </c>
       <c r="I8" s="3">
-        <v>78200</v>
+        <v>71200</v>
       </c>
       <c r="J8" s="3">
+        <v>80000</v>
+      </c>
+      <c r="K8" s="3">
         <v>58900</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="3">
-        <v>5000</v>
-      </c>
       <c r="F9" s="3">
-        <v>18800</v>
+        <v>5100</v>
       </c>
       <c r="G9" s="3">
-        <v>24700</v>
+        <v>19200</v>
       </c>
       <c r="H9" s="3">
-        <v>45200</v>
+        <v>25300</v>
       </c>
       <c r="I9" s="3">
-        <v>47900</v>
+        <v>46200</v>
       </c>
       <c r="J9" s="3">
+        <v>49100</v>
+      </c>
+      <c r="K9" s="3">
         <v>38100</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="3">
-        <v>2400</v>
-      </c>
       <c r="F10" s="3">
-        <v>21600</v>
+        <v>2500</v>
       </c>
       <c r="G10" s="3">
-        <v>14800</v>
+        <v>22100</v>
       </c>
       <c r="H10" s="3">
-        <v>24300</v>
+        <v>15200</v>
       </c>
       <c r="I10" s="3">
-        <v>30200</v>
+        <v>24900</v>
       </c>
       <c r="J10" s="3">
+        <v>31000</v>
+      </c>
+      <c r="K10" s="3">
         <v>20800</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -799,8 +811,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -825,9 +838,12 @@
       <c r="J12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -852,63 +868,72 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>2100</v>
       </c>
-      <c r="E14" s="3">
-        <v>18300</v>
-      </c>
       <c r="F14" s="3">
-        <v>5800</v>
+        <v>18700</v>
       </c>
       <c r="G14" s="3">
-        <v>9400</v>
+        <v>6000</v>
       </c>
       <c r="H14" s="3">
-        <v>8200</v>
+        <v>9600</v>
       </c>
       <c r="I14" s="3">
-        <v>83600</v>
+        <v>8300</v>
       </c>
       <c r="J14" s="3">
+        <v>85600</v>
+      </c>
+      <c r="K14" s="3">
         <v>102500</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="3">
-        <v>0</v>
+      <c r="E15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F15" s="3">
-        <v>3200</v>
+        <v>0</v>
       </c>
       <c r="G15" s="3">
-        <v>4200</v>
+        <v>3300</v>
       </c>
       <c r="H15" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="I15" s="3">
-        <v>6800</v>
+        <v>4300</v>
       </c>
       <c r="J15" s="3">
+        <v>7000</v>
+      </c>
+      <c r="K15" s="3">
         <v>5000</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -917,62 +942,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>33500</v>
+        <v>50400</v>
       </c>
       <c r="E17" s="3">
-        <v>59200</v>
+        <v>34300</v>
       </c>
       <c r="F17" s="3">
-        <v>67600</v>
+        <v>60600</v>
       </c>
       <c r="G17" s="3">
-        <v>75800</v>
+        <v>69200</v>
       </c>
       <c r="H17" s="3">
-        <v>118900</v>
+        <v>77600</v>
       </c>
       <c r="I17" s="3">
-        <v>180000</v>
+        <v>121700</v>
       </c>
       <c r="J17" s="3">
+        <v>184300</v>
+      </c>
+      <c r="K17" s="3">
         <v>169200</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-31400</v>
+        <v>-46200</v>
       </c>
       <c r="E18" s="3">
-        <v>-51700</v>
+        <v>-32100</v>
       </c>
       <c r="F18" s="3">
-        <v>-27200</v>
+        <v>-52900</v>
       </c>
       <c r="G18" s="3">
-        <v>-36300</v>
+        <v>-27800</v>
       </c>
       <c r="H18" s="3">
-        <v>-49400</v>
+        <v>-37100</v>
       </c>
       <c r="I18" s="3">
-        <v>-101800</v>
+        <v>-50600</v>
       </c>
       <c r="J18" s="3">
+        <v>-104200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-110300</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -984,130 +1016,143 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2900</v>
+        <v>48200</v>
       </c>
       <c r="E20" s="3">
-        <v>5100</v>
+        <v>-3000</v>
       </c>
       <c r="F20" s="3">
+        <v>5200</v>
+      </c>
+      <c r="G20" s="3">
         <v>-3000</v>
       </c>
-      <c r="G20" s="3">
-        <v>3300</v>
-      </c>
       <c r="H20" s="3">
-        <v>1500</v>
+        <v>3400</v>
       </c>
       <c r="I20" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J20" s="3">
         <v>-500</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-30800</v>
+        <v>6100</v>
       </c>
       <c r="E21" s="3">
-        <v>-45100</v>
+        <v>-31600</v>
       </c>
       <c r="F21" s="3">
-        <v>-25300</v>
+        <v>-46200</v>
       </c>
       <c r="G21" s="3">
-        <v>-27100</v>
+        <v>-25900</v>
       </c>
       <c r="H21" s="3">
-        <v>-42400</v>
+        <v>-27700</v>
       </c>
       <c r="I21" s="3">
-        <v>-92400</v>
+        <v>-43500</v>
       </c>
       <c r="J21" s="3">
+        <v>-94700</v>
+      </c>
+      <c r="K21" s="3">
         <v>-101600</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>100</v>
+      </c>
+      <c r="E22" s="3">
         <v>1200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2700</v>
       </c>
-      <c r="H22" s="3">
-        <v>2900</v>
-      </c>
       <c r="I22" s="3">
-        <v>2600</v>
-      </c>
-      <c r="J22" s="3" t="s">
+        <v>3000</v>
+      </c>
+      <c r="J22" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-35500</v>
+        <v>1900</v>
       </c>
       <c r="E23" s="3">
-        <v>-48500</v>
+        <v>-36400</v>
       </c>
       <c r="F23" s="3">
-        <v>-32300</v>
+        <v>-49700</v>
       </c>
       <c r="G23" s="3">
-        <v>-35700</v>
+        <v>-33100</v>
       </c>
       <c r="H23" s="3">
-        <v>-50800</v>
+        <v>-36500</v>
       </c>
       <c r="I23" s="3">
-        <v>-104900</v>
+        <v>-52000</v>
       </c>
       <c r="J23" s="3">
+        <v>-107400</v>
+      </c>
+      <c r="K23" s="3">
         <v>-110300</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>5</v>
+      <c r="D24" s="3">
+        <v>0</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>5</v>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1116,11 +1161,14 @@
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1145,63 +1193,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-35500</v>
+        <v>1900</v>
       </c>
       <c r="E26" s="3">
-        <v>-48500</v>
+        <v>-36400</v>
       </c>
       <c r="F26" s="3">
-        <v>-32300</v>
+        <v>-49700</v>
       </c>
       <c r="G26" s="3">
-        <v>-35700</v>
+        <v>-33100</v>
       </c>
       <c r="H26" s="3">
-        <v>-50800</v>
+        <v>-36500</v>
       </c>
       <c r="I26" s="3">
-        <v>-104900</v>
+        <v>-52000</v>
       </c>
       <c r="J26" s="3">
+        <v>-107400</v>
+      </c>
+      <c r="K26" s="3">
         <v>-110400</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-35400</v>
+        <v>2000</v>
       </c>
       <c r="E27" s="3">
-        <v>-48400</v>
+        <v>-36200</v>
       </c>
       <c r="F27" s="3">
-        <v>-32200</v>
+        <v>-49500</v>
       </c>
       <c r="G27" s="3">
-        <v>-35400</v>
+        <v>-32900</v>
       </c>
       <c r="H27" s="3">
-        <v>-50200</v>
+        <v>-36200</v>
       </c>
       <c r="I27" s="3">
-        <v>-104800</v>
+        <v>-51400</v>
       </c>
       <c r="J27" s="3">
+        <v>-107200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-110400</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1226,9 +1283,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1253,9 +1313,12 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1280,9 +1343,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1307,63 +1373,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2900</v>
+        <v>-48200</v>
       </c>
       <c r="E32" s="3">
-        <v>-5100</v>
+        <v>3000</v>
       </c>
       <c r="F32" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="G32" s="3">
         <v>3000</v>
       </c>
-      <c r="G32" s="3">
-        <v>-3300</v>
-      </c>
       <c r="H32" s="3">
-        <v>-1500</v>
+        <v>-3400</v>
       </c>
       <c r="I32" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="J32" s="3">
         <v>500</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-35400</v>
+        <v>2000</v>
       </c>
       <c r="E33" s="3">
-        <v>-48400</v>
+        <v>-36200</v>
       </c>
       <c r="F33" s="3">
-        <v>-32200</v>
+        <v>-49500</v>
       </c>
       <c r="G33" s="3">
-        <v>-35400</v>
+        <v>-32900</v>
       </c>
       <c r="H33" s="3">
-        <v>-50200</v>
+        <v>-36200</v>
       </c>
       <c r="I33" s="3">
-        <v>-104800</v>
+        <v>-51400</v>
       </c>
       <c r="J33" s="3">
+        <v>-107200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-110400</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1388,68 +1463,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-35400</v>
+        <v>2000</v>
       </c>
       <c r="E35" s="3">
-        <v>-48400</v>
+        <v>-36200</v>
       </c>
       <c r="F35" s="3">
-        <v>-32200</v>
+        <v>-49500</v>
       </c>
       <c r="G35" s="3">
-        <v>-35400</v>
+        <v>-32900</v>
       </c>
       <c r="H35" s="3">
-        <v>-50200</v>
+        <v>-36200</v>
       </c>
       <c r="I35" s="3">
-        <v>-104800</v>
+        <v>-51400</v>
       </c>
       <c r="J35" s="3">
+        <v>-107200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-110400</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1461,8 +1545,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1474,49 +1559,53 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>25700</v>
+        <v>146800</v>
       </c>
       <c r="E41" s="3">
-        <v>16300</v>
+        <v>26300</v>
       </c>
       <c r="F41" s="3">
-        <v>18700</v>
+        <v>16700</v>
       </c>
       <c r="G41" s="3">
-        <v>23700</v>
+        <v>19100</v>
       </c>
       <c r="H41" s="3">
-        <v>21500</v>
+        <v>24200</v>
       </c>
       <c r="I41" s="3">
-        <v>16500</v>
+        <v>22000</v>
       </c>
       <c r="J41" s="3">
+        <v>16900</v>
+      </c>
+      <c r="K41" s="3">
         <v>13300</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>600</v>
+      </c>
+      <c r="E42" s="3">
         <v>2900</v>
       </c>
-      <c r="E42" s="3">
-        <v>6200</v>
-      </c>
       <c r="F42" s="3">
-        <v>34500</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>5</v>
+        <v>6300</v>
+      </c>
+      <c r="G42" s="3">
+        <v>35300</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>5</v>
@@ -1524,174 +1613,195 @@
       <c r="I42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K42" s="3">
         <v>400</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E43" s="3">
         <v>1500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1600</v>
-      </c>
-      <c r="F43" s="3">
-        <v>1500</v>
       </c>
       <c r="G43" s="3">
         <v>1600</v>
       </c>
       <c r="H43" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I43" s="3">
         <v>500</v>
       </c>
-      <c r="I43" s="3">
-        <v>3300</v>
-      </c>
       <c r="J43" s="3">
+        <v>3400</v>
+      </c>
+      <c r="K43" s="3">
         <v>800</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>35100</v>
+        <v>40100</v>
       </c>
       <c r="E44" s="3">
-        <v>29100</v>
+        <v>36000</v>
       </c>
       <c r="F44" s="3">
-        <v>21100</v>
+        <v>29800</v>
       </c>
       <c r="G44" s="3">
-        <v>21100</v>
+        <v>21600</v>
       </c>
       <c r="H44" s="3">
-        <v>21400</v>
+        <v>21600</v>
       </c>
       <c r="I44" s="3">
-        <v>39100</v>
+        <v>21900</v>
       </c>
       <c r="J44" s="3">
+        <v>40000</v>
+      </c>
+      <c r="K44" s="3">
         <v>38900</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1800</v>
       </c>
-      <c r="G45" s="3">
-        <v>8700</v>
-      </c>
       <c r="H45" s="3">
+        <v>8900</v>
+      </c>
+      <c r="I45" s="3">
         <v>2700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
+        <v>3600</v>
+      </c>
+      <c r="K45" s="3">
         <v>3500</v>
       </c>
-      <c r="J45" s="3">
-        <v>3500</v>
-      </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>66900</v>
+        <v>194800</v>
       </c>
       <c r="E46" s="3">
-        <v>55000</v>
+        <v>68400</v>
       </c>
       <c r="F46" s="3">
-        <v>77500</v>
+        <v>56300</v>
       </c>
       <c r="G46" s="3">
-        <v>55000</v>
+        <v>79400</v>
       </c>
       <c r="H46" s="3">
-        <v>46000</v>
+        <v>56300</v>
       </c>
       <c r="I46" s="3">
-        <v>62400</v>
+        <v>47100</v>
       </c>
       <c r="J46" s="3">
+        <v>63900</v>
+      </c>
+      <c r="K46" s="3">
         <v>56400</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>50300</v>
+      </c>
+      <c r="E47" s="3">
         <v>1000</v>
       </c>
-      <c r="E47" s="3">
-        <v>800</v>
-      </c>
       <c r="F47" s="3">
+        <v>900</v>
+      </c>
+      <c r="G47" s="3">
         <v>1400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1800</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>137400</v>
+        <v>138200</v>
       </c>
       <c r="E48" s="3">
-        <v>141000</v>
+        <v>140600</v>
       </c>
       <c r="F48" s="3">
-        <v>144500</v>
+        <v>144400</v>
       </c>
       <c r="G48" s="3">
-        <v>148600</v>
+        <v>147900</v>
       </c>
       <c r="H48" s="3">
-        <v>165900</v>
+        <v>152100</v>
       </c>
       <c r="I48" s="3">
-        <v>153000</v>
+        <v>169800</v>
       </c>
       <c r="J48" s="3">
+        <v>156700</v>
+      </c>
+      <c r="K48" s="3">
         <v>245000</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1701,24 +1811,27 @@
       <c r="E49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F49" s="3">
-        <v>0</v>
+      <c r="F49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G49" s="3">
-        <v>6400</v>
+        <v>0</v>
       </c>
       <c r="H49" s="3">
-        <v>7400</v>
+        <v>6500</v>
       </c>
       <c r="I49" s="3">
-        <v>11600</v>
+        <v>7600</v>
       </c>
       <c r="J49" s="3">
+        <v>11900</v>
+      </c>
+      <c r="K49" s="3">
         <v>9900</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1743,9 +1856,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1770,36 +1886,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>28200</v>
+        <v>28300</v>
       </c>
       <c r="E52" s="3">
-        <v>27100</v>
+        <v>28900</v>
       </c>
       <c r="F52" s="3">
-        <v>27300</v>
+        <v>27700</v>
       </c>
       <c r="G52" s="3">
-        <v>28200</v>
+        <v>27900</v>
       </c>
       <c r="H52" s="3">
-        <v>29500</v>
+        <v>28900</v>
       </c>
       <c r="I52" s="3">
-        <v>16500</v>
+        <v>30200</v>
       </c>
       <c r="J52" s="3">
+        <v>16900</v>
+      </c>
+      <c r="K52" s="3">
         <v>23100</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1824,36 +1946,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>233500</v>
+        <v>411500</v>
       </c>
       <c r="E54" s="3">
-        <v>223900</v>
+        <v>239000</v>
       </c>
       <c r="F54" s="3">
-        <v>250700</v>
+        <v>229200</v>
       </c>
       <c r="G54" s="3">
-        <v>236200</v>
+        <v>256700</v>
       </c>
       <c r="H54" s="3">
-        <v>250300</v>
+        <v>241800</v>
       </c>
       <c r="I54" s="3">
-        <v>245000</v>
+        <v>256300</v>
       </c>
       <c r="J54" s="3">
+        <v>250800</v>
+      </c>
+      <c r="K54" s="3">
         <v>163900</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1865,8 +1993,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1878,116 +2007,129 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E57" s="3">
         <v>600</v>
       </c>
-      <c r="E57" s="3">
-        <v>2600</v>
-      </c>
       <c r="F57" s="3">
-        <v>10100</v>
+        <v>2700</v>
       </c>
       <c r="G57" s="3">
-        <v>8200</v>
+        <v>10300</v>
       </c>
       <c r="H57" s="3">
-        <v>7300</v>
+        <v>8400</v>
       </c>
       <c r="I57" s="3">
-        <v>12200</v>
+        <v>7500</v>
       </c>
       <c r="J57" s="3">
+        <v>12400</v>
+      </c>
+      <c r="K57" s="3">
         <v>6000</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E58" s="3">
-        <v>21500</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>0</v>
+        <v>22000</v>
       </c>
       <c r="G58" s="3">
-        <v>4400</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>8100</v>
+        <v>4500</v>
       </c>
       <c r="I58" s="3">
-        <v>4600</v>
+        <v>8200</v>
       </c>
       <c r="J58" s="3">
+        <v>4700</v>
+      </c>
+      <c r="K58" s="3">
         <v>100</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>15100</v>
+        <v>4000</v>
       </c>
       <c r="E59" s="3">
-        <v>4800</v>
+        <v>15400</v>
       </c>
       <c r="F59" s="3">
+        <v>4900</v>
+      </c>
+      <c r="G59" s="3">
         <v>1200</v>
       </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
       <c r="H59" s="3">
         <v>0</v>
       </c>
       <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
         <v>1300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2100</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>15700</v>
+        <v>8000</v>
       </c>
       <c r="E60" s="3">
-        <v>28800</v>
+        <v>16100</v>
       </c>
       <c r="F60" s="3">
-        <v>11300</v>
+        <v>29500</v>
       </c>
       <c r="G60" s="3">
-        <v>12600</v>
+        <v>11500</v>
       </c>
       <c r="H60" s="3">
-        <v>15400</v>
+        <v>12900</v>
       </c>
       <c r="I60" s="3">
-        <v>18000</v>
+        <v>15800</v>
       </c>
       <c r="J60" s="3">
+        <v>18400</v>
+      </c>
+      <c r="K60" s="3">
         <v>8200</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -1998,50 +2140,56 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>20200</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>30700</v>
+        <v>20700</v>
       </c>
       <c r="H61" s="3">
-        <v>29600</v>
+        <v>31400</v>
       </c>
       <c r="I61" s="3">
-        <v>36900</v>
+        <v>30300</v>
       </c>
       <c r="J61" s="3">
+        <v>37700</v>
+      </c>
+      <c r="K61" s="3">
         <v>20100</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="E62" s="3">
-        <v>28600</v>
+        <v>17400</v>
       </c>
       <c r="F62" s="3">
-        <v>34600</v>
+        <v>29300</v>
       </c>
       <c r="G62" s="3">
-        <v>30700</v>
+        <v>35500</v>
       </c>
       <c r="H62" s="3">
-        <v>29600</v>
+        <v>31400</v>
       </c>
       <c r="I62" s="3">
-        <v>12400</v>
+        <v>30300</v>
       </c>
       <c r="J62" s="3">
+        <v>12700</v>
+      </c>
+      <c r="K62" s="3">
         <v>26400</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2066,9 +2214,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2093,9 +2244,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2120,36 +2274,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>37500</v>
+        <v>31100</v>
       </c>
       <c r="E66" s="3">
-        <v>62200</v>
+        <v>38400</v>
       </c>
       <c r="F66" s="3">
-        <v>71000</v>
+        <v>63700</v>
       </c>
       <c r="G66" s="3">
-        <v>75800</v>
+        <v>72600</v>
       </c>
       <c r="H66" s="3">
-        <v>79400</v>
+        <v>77600</v>
       </c>
       <c r="I66" s="3">
-        <v>72600</v>
+        <v>81300</v>
       </c>
       <c r="J66" s="3">
+        <v>74300</v>
+      </c>
+      <c r="K66" s="3">
         <v>35400</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2161,8 +2321,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2187,9 +2348,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2214,9 +2378,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2241,9 +2408,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2268,36 +2438,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-506900</v>
+        <v>-516900</v>
       </c>
       <c r="E72" s="3">
-        <v>-471500</v>
+        <v>-518900</v>
       </c>
       <c r="F72" s="3">
-        <v>-423100</v>
+        <v>-482700</v>
       </c>
       <c r="G72" s="3">
-        <v>-391000</v>
+        <v>-433100</v>
       </c>
       <c r="H72" s="3">
-        <v>-358700</v>
+        <v>-400200</v>
       </c>
       <c r="I72" s="3">
-        <v>-308500</v>
+        <v>-367200</v>
       </c>
       <c r="J72" s="3">
+        <v>-315800</v>
+      </c>
+      <c r="K72" s="3">
         <v>-197700</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2322,9 +2498,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2349,9 +2528,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2376,36 +2558,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>196000</v>
+        <v>380300</v>
       </c>
       <c r="E76" s="3">
-        <v>161700</v>
+        <v>200600</v>
       </c>
       <c r="F76" s="3">
-        <v>179800</v>
+        <v>165500</v>
       </c>
       <c r="G76" s="3">
-        <v>160400</v>
+        <v>184000</v>
       </c>
       <c r="H76" s="3">
-        <v>170900</v>
+        <v>164200</v>
       </c>
       <c r="I76" s="3">
-        <v>172500</v>
+        <v>174900</v>
       </c>
       <c r="J76" s="3">
+        <v>176500</v>
+      </c>
+      <c r="K76" s="3">
         <v>128500</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2430,68 +2618,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-35400</v>
+        <v>2000</v>
       </c>
       <c r="E81" s="3">
-        <v>-48400</v>
+        <v>-36200</v>
       </c>
       <c r="F81" s="3">
-        <v>-32200</v>
+        <v>-49500</v>
       </c>
       <c r="G81" s="3">
-        <v>-35400</v>
+        <v>-32900</v>
       </c>
       <c r="H81" s="3">
-        <v>-50200</v>
+        <v>-36200</v>
       </c>
       <c r="I81" s="3">
-        <v>-104800</v>
+        <v>-51400</v>
       </c>
       <c r="J81" s="3">
+        <v>-107200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-110400</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2503,35 +2700,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3400</v>
+        <v>4200</v>
       </c>
       <c r="E83" s="3">
-        <v>1500</v>
+        <v>3500</v>
       </c>
       <c r="F83" s="3">
-        <v>4800</v>
+        <v>1600</v>
       </c>
       <c r="G83" s="3">
-        <v>5900</v>
+        <v>4900</v>
       </c>
       <c r="H83" s="3">
-        <v>5400</v>
+        <v>6000</v>
       </c>
       <c r="I83" s="3">
-        <v>9900</v>
+        <v>5600</v>
       </c>
       <c r="J83" s="3">
+        <v>10200</v>
+      </c>
+      <c r="K83" s="3">
         <v>8700</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2556,9 +2757,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2583,9 +2787,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2610,9 +2817,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2637,9 +2847,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2664,36 +2877,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-41000</v>
+        <v>-38200</v>
       </c>
       <c r="E89" s="3">
-        <v>-56600</v>
+        <v>-42000</v>
       </c>
       <c r="F89" s="3">
-        <v>-9900</v>
+        <v>-57900</v>
       </c>
       <c r="G89" s="3">
-        <v>-13200</v>
+        <v>-10200</v>
       </c>
       <c r="H89" s="3">
-        <v>-15300</v>
+        <v>-13500</v>
       </c>
       <c r="I89" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="J89" s="3">
         <v>-2700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-9800</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2705,35 +2924,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-800</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-300</v>
       </c>
-      <c r="I91" s="3">
-        <v>-5500</v>
-      </c>
       <c r="J91" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-4300</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2758,9 +2981,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2785,36 +3011,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>4600</v>
+        <v>4200</v>
       </c>
       <c r="E94" s="3">
-        <v>28800</v>
+        <v>4700</v>
       </c>
       <c r="F94" s="3">
-        <v>-25700</v>
+        <v>29400</v>
       </c>
       <c r="G94" s="3">
-        <v>1300</v>
+        <v>-26300</v>
       </c>
       <c r="H94" s="3">
-        <v>-8000</v>
+        <v>1400</v>
       </c>
       <c r="I94" s="3">
-        <v>4400</v>
+        <v>-8200</v>
       </c>
       <c r="J94" s="3">
+        <v>4500</v>
+      </c>
+      <c r="K94" s="3">
         <v>14200</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2826,8 +3058,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2852,9 +3085,12 @@
       <c r="J96" s="3">
         <v>0</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2879,9 +3115,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2906,9 +3145,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2933,88 +3175,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>46600</v>
+        <v>153800</v>
       </c>
       <c r="E100" s="3">
-        <v>25900</v>
+        <v>47700</v>
       </c>
       <c r="F100" s="3">
-        <v>27500</v>
+        <v>26600</v>
       </c>
       <c r="G100" s="3">
-        <v>13300</v>
+        <v>28200</v>
       </c>
       <c r="H100" s="3">
-        <v>28300</v>
+        <v>13600</v>
       </c>
       <c r="I100" s="3">
+        <v>28900</v>
+      </c>
+      <c r="J100" s="3">
         <v>1800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>600</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E101" s="3">
         <v>100</v>
       </c>
       <c r="F101" s="3">
+        <v>100</v>
+      </c>
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>100</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-200</v>
       </c>
       <c r="J101" s="3">
         <v>-200</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>10300</v>
+        <v>119800</v>
       </c>
       <c r="E102" s="3">
+        <v>10600</v>
+      </c>
+      <c r="F102" s="3">
         <v>-1800</v>
       </c>
-      <c r="F102" s="3">
-        <v>-8200</v>
-      </c>
       <c r="G102" s="3">
-        <v>2100</v>
+        <v>-8400</v>
       </c>
       <c r="H102" s="3">
-        <v>5000</v>
+        <v>2200</v>
       </c>
       <c r="I102" s="3">
+        <v>5100</v>
+      </c>
+      <c r="J102" s="3">
         <v>3300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>4800</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/EFR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/EFR_YR_FIN.xlsx
@@ -714,25 +714,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="E8" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="F8" s="3">
-        <v>7700</v>
+        <v>7600</v>
       </c>
       <c r="G8" s="3">
-        <v>41400</v>
+        <v>41000</v>
       </c>
       <c r="H8" s="3">
-        <v>40500</v>
+        <v>40100</v>
       </c>
       <c r="I8" s="3">
-        <v>71200</v>
+        <v>70500</v>
       </c>
       <c r="J8" s="3">
-        <v>80000</v>
+        <v>79300</v>
       </c>
       <c r="K8" s="3">
         <v>58900</v>
@@ -744,7 +744,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>5</v>
@@ -753,16 +753,16 @@
         <v>5100</v>
       </c>
       <c r="G9" s="3">
-        <v>19200</v>
+        <v>19100</v>
       </c>
       <c r="H9" s="3">
-        <v>25300</v>
+        <v>25100</v>
       </c>
       <c r="I9" s="3">
-        <v>46200</v>
+        <v>45800</v>
       </c>
       <c r="J9" s="3">
-        <v>49100</v>
+        <v>48600</v>
       </c>
       <c r="K9" s="3">
         <v>38100</v>
@@ -783,16 +783,16 @@
         <v>2500</v>
       </c>
       <c r="G10" s="3">
-        <v>22100</v>
+        <v>21900</v>
       </c>
       <c r="H10" s="3">
-        <v>15200</v>
+        <v>15000</v>
       </c>
       <c r="I10" s="3">
-        <v>24900</v>
+        <v>24700</v>
       </c>
       <c r="J10" s="3">
-        <v>31000</v>
+        <v>30700</v>
       </c>
       <c r="K10" s="3">
         <v>20800</v>
@@ -884,10 +884,10 @@
         <v>2100</v>
       </c>
       <c r="F14" s="3">
-        <v>18700</v>
+        <v>18500</v>
       </c>
       <c r="G14" s="3">
-        <v>6000</v>
+        <v>5900</v>
       </c>
       <c r="H14" s="3">
         <v>9600</v>
@@ -896,7 +896,7 @@
         <v>8300</v>
       </c>
       <c r="J14" s="3">
-        <v>85600</v>
+        <v>84800</v>
       </c>
       <c r="K14" s="3">
         <v>102500</v>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="H15" s="3">
         <v>4300</v>
@@ -926,7 +926,7 @@
         <v>4300</v>
       </c>
       <c r="J15" s="3">
-        <v>7000</v>
+        <v>6900</v>
       </c>
       <c r="K15" s="3">
         <v>5000</v>
@@ -949,25 +949,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>50400</v>
+        <v>49900</v>
       </c>
       <c r="E17" s="3">
-        <v>34300</v>
+        <v>34000</v>
       </c>
       <c r="F17" s="3">
-        <v>60600</v>
+        <v>60000</v>
       </c>
       <c r="G17" s="3">
-        <v>69200</v>
+        <v>68500</v>
       </c>
       <c r="H17" s="3">
-        <v>77600</v>
+        <v>76900</v>
       </c>
       <c r="I17" s="3">
-        <v>121700</v>
+        <v>120600</v>
       </c>
       <c r="J17" s="3">
-        <v>184300</v>
+        <v>182600</v>
       </c>
       <c r="K17" s="3">
         <v>169200</v>
@@ -979,25 +979,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-46200</v>
+        <v>-45800</v>
       </c>
       <c r="E18" s="3">
-        <v>-32100</v>
+        <v>-31800</v>
       </c>
       <c r="F18" s="3">
-        <v>-52900</v>
+        <v>-52400</v>
       </c>
       <c r="G18" s="3">
-        <v>-27800</v>
+        <v>-27500</v>
       </c>
       <c r="H18" s="3">
-        <v>-37100</v>
+        <v>-36800</v>
       </c>
       <c r="I18" s="3">
-        <v>-50600</v>
+        <v>-50100</v>
       </c>
       <c r="J18" s="3">
-        <v>-104200</v>
+        <v>-103300</v>
       </c>
       <c r="K18" s="3">
         <v>-110300</v>
@@ -1023,22 +1023,22 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>48200</v>
+        <v>47700</v>
       </c>
       <c r="E20" s="3">
         <v>-3000</v>
       </c>
       <c r="F20" s="3">
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="G20" s="3">
         <v>-3000</v>
       </c>
       <c r="H20" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="I20" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="J20" s="3">
         <v>-500</v>
@@ -1056,22 +1056,22 @@
         <v>6100</v>
       </c>
       <c r="E21" s="3">
-        <v>-31600</v>
+        <v>-31300</v>
       </c>
       <c r="F21" s="3">
-        <v>-46200</v>
+        <v>-45700</v>
       </c>
       <c r="G21" s="3">
-        <v>-25900</v>
+        <v>-25600</v>
       </c>
       <c r="H21" s="3">
-        <v>-27700</v>
+        <v>-27400</v>
       </c>
       <c r="I21" s="3">
-        <v>-43500</v>
+        <v>-43000</v>
       </c>
       <c r="J21" s="3">
-        <v>-94700</v>
+        <v>-93700</v>
       </c>
       <c r="K21" s="3">
         <v>-101600</v>
@@ -1101,7 +1101,7 @@
         <v>3000</v>
       </c>
       <c r="J22" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>5</v>
@@ -1116,22 +1116,22 @@
         <v>1900</v>
       </c>
       <c r="E23" s="3">
-        <v>-36400</v>
+        <v>-36000</v>
       </c>
       <c r="F23" s="3">
-        <v>-49700</v>
+        <v>-49200</v>
       </c>
       <c r="G23" s="3">
-        <v>-33100</v>
+        <v>-32800</v>
       </c>
       <c r="H23" s="3">
-        <v>-36500</v>
+        <v>-36200</v>
       </c>
       <c r="I23" s="3">
-        <v>-52000</v>
+        <v>-51500</v>
       </c>
       <c r="J23" s="3">
-        <v>-107400</v>
+        <v>-106400</v>
       </c>
       <c r="K23" s="3">
         <v>-110300</v>
@@ -1206,22 +1206,22 @@
         <v>1900</v>
       </c>
       <c r="E26" s="3">
-        <v>-36400</v>
+        <v>-36000</v>
       </c>
       <c r="F26" s="3">
-        <v>-49700</v>
+        <v>-49200</v>
       </c>
       <c r="G26" s="3">
-        <v>-33100</v>
+        <v>-32800</v>
       </c>
       <c r="H26" s="3">
-        <v>-36500</v>
+        <v>-36200</v>
       </c>
       <c r="I26" s="3">
-        <v>-52000</v>
+        <v>-51500</v>
       </c>
       <c r="J26" s="3">
-        <v>-107400</v>
+        <v>-106400</v>
       </c>
       <c r="K26" s="3">
         <v>-110400</v>
@@ -1236,22 +1236,22 @@
         <v>2000</v>
       </c>
       <c r="E27" s="3">
-        <v>-36200</v>
+        <v>-35900</v>
       </c>
       <c r="F27" s="3">
-        <v>-49500</v>
+        <v>-49100</v>
       </c>
       <c r="G27" s="3">
-        <v>-32900</v>
+        <v>-32600</v>
       </c>
       <c r="H27" s="3">
-        <v>-36200</v>
+        <v>-35900</v>
       </c>
       <c r="I27" s="3">
-        <v>-51400</v>
+        <v>-50900</v>
       </c>
       <c r="J27" s="3">
-        <v>-107200</v>
+        <v>-106300</v>
       </c>
       <c r="K27" s="3">
         <v>-110400</v>
@@ -1383,22 +1383,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-48200</v>
+        <v>-47700</v>
       </c>
       <c r="E32" s="3">
         <v>3000</v>
       </c>
       <c r="F32" s="3">
-        <v>-5200</v>
+        <v>-5100</v>
       </c>
       <c r="G32" s="3">
         <v>3000</v>
       </c>
       <c r="H32" s="3">
-        <v>-3400</v>
+        <v>-3300</v>
       </c>
       <c r="I32" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="J32" s="3">
         <v>500</v>
@@ -1416,22 +1416,22 @@
         <v>2000</v>
       </c>
       <c r="E33" s="3">
-        <v>-36200</v>
+        <v>-35900</v>
       </c>
       <c r="F33" s="3">
-        <v>-49500</v>
+        <v>-49100</v>
       </c>
       <c r="G33" s="3">
-        <v>-32900</v>
+        <v>-32600</v>
       </c>
       <c r="H33" s="3">
-        <v>-36200</v>
+        <v>-35900</v>
       </c>
       <c r="I33" s="3">
-        <v>-51400</v>
+        <v>-50900</v>
       </c>
       <c r="J33" s="3">
-        <v>-107200</v>
+        <v>-106300</v>
       </c>
       <c r="K33" s="3">
         <v>-110400</v>
@@ -1476,22 +1476,22 @@
         <v>2000</v>
       </c>
       <c r="E35" s="3">
-        <v>-36200</v>
+        <v>-35900</v>
       </c>
       <c r="F35" s="3">
-        <v>-49500</v>
+        <v>-49100</v>
       </c>
       <c r="G35" s="3">
-        <v>-32900</v>
+        <v>-32600</v>
       </c>
       <c r="H35" s="3">
-        <v>-36200</v>
+        <v>-35900</v>
       </c>
       <c r="I35" s="3">
-        <v>-51400</v>
+        <v>-50900</v>
       </c>
       <c r="J35" s="3">
-        <v>-107200</v>
+        <v>-106300</v>
       </c>
       <c r="K35" s="3">
         <v>-110400</v>
@@ -1566,25 +1566,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>146800</v>
+        <v>145400</v>
       </c>
       <c r="E41" s="3">
-        <v>26300</v>
+        <v>26100</v>
       </c>
       <c r="F41" s="3">
-        <v>16700</v>
+        <v>16600</v>
       </c>
       <c r="G41" s="3">
-        <v>19100</v>
+        <v>18900</v>
       </c>
       <c r="H41" s="3">
-        <v>24200</v>
+        <v>24000</v>
       </c>
       <c r="I41" s="3">
-        <v>22000</v>
+        <v>21800</v>
       </c>
       <c r="J41" s="3">
-        <v>16900</v>
+        <v>16800</v>
       </c>
       <c r="K41" s="3">
         <v>13300</v>
@@ -1605,7 +1605,7 @@
         <v>6300</v>
       </c>
       <c r="G42" s="3">
-        <v>35300</v>
+        <v>35000</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>5</v>
@@ -1626,7 +1626,7 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="E43" s="3">
         <v>1500</v>
@@ -1635,7 +1635,7 @@
         <v>1600</v>
       </c>
       <c r="G43" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="H43" s="3">
         <v>1600</v>
@@ -1656,25 +1656,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>40100</v>
+        <v>39800</v>
       </c>
       <c r="E44" s="3">
-        <v>36000</v>
+        <v>35600</v>
       </c>
       <c r="F44" s="3">
-        <v>29800</v>
+        <v>29500</v>
       </c>
       <c r="G44" s="3">
-        <v>21600</v>
+        <v>21400</v>
       </c>
       <c r="H44" s="3">
-        <v>21600</v>
+        <v>21400</v>
       </c>
       <c r="I44" s="3">
-        <v>21900</v>
+        <v>21700</v>
       </c>
       <c r="J44" s="3">
-        <v>40000</v>
+        <v>39600</v>
       </c>
       <c r="K44" s="3">
         <v>38900</v>
@@ -1698,13 +1698,13 @@
         <v>1800</v>
       </c>
       <c r="H45" s="3">
-        <v>8900</v>
+        <v>8800</v>
       </c>
       <c r="I45" s="3">
         <v>2700</v>
       </c>
       <c r="J45" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="K45" s="3">
         <v>3500</v>
@@ -1716,25 +1716,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>194800</v>
+        <v>193000</v>
       </c>
       <c r="E46" s="3">
-        <v>68400</v>
+        <v>67800</v>
       </c>
       <c r="F46" s="3">
-        <v>56300</v>
+        <v>55800</v>
       </c>
       <c r="G46" s="3">
-        <v>79400</v>
+        <v>78600</v>
       </c>
       <c r="H46" s="3">
-        <v>56300</v>
+        <v>55800</v>
       </c>
       <c r="I46" s="3">
-        <v>47100</v>
+        <v>46700</v>
       </c>
       <c r="J46" s="3">
-        <v>63900</v>
+        <v>63300</v>
       </c>
       <c r="K46" s="3">
         <v>56400</v>
@@ -1746,13 +1746,13 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>50300</v>
+        <v>49800</v>
       </c>
       <c r="E47" s="3">
         <v>1000</v>
       </c>
       <c r="F47" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="G47" s="3">
         <v>1400</v>
@@ -1776,25 +1776,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>138200</v>
+        <v>136900</v>
       </c>
       <c r="E48" s="3">
-        <v>140600</v>
+        <v>139300</v>
       </c>
       <c r="F48" s="3">
-        <v>144400</v>
+        <v>143000</v>
       </c>
       <c r="G48" s="3">
-        <v>147900</v>
+        <v>146500</v>
       </c>
       <c r="H48" s="3">
-        <v>152100</v>
+        <v>150700</v>
       </c>
       <c r="I48" s="3">
-        <v>169800</v>
+        <v>168300</v>
       </c>
       <c r="J48" s="3">
-        <v>156700</v>
+        <v>155200</v>
       </c>
       <c r="K48" s="3">
         <v>245000</v>
@@ -1821,10 +1821,10 @@
         <v>6500</v>
       </c>
       <c r="I49" s="3">
-        <v>7600</v>
+        <v>7500</v>
       </c>
       <c r="J49" s="3">
-        <v>11900</v>
+        <v>11800</v>
       </c>
       <c r="K49" s="3">
         <v>9900</v>
@@ -1896,25 +1896,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>28300</v>
+        <v>28000</v>
       </c>
       <c r="E52" s="3">
-        <v>28900</v>
+        <v>28600</v>
       </c>
       <c r="F52" s="3">
+        <v>27400</v>
+      </c>
+      <c r="G52" s="3">
         <v>27700</v>
       </c>
-      <c r="G52" s="3">
-        <v>27900</v>
-      </c>
       <c r="H52" s="3">
-        <v>28900</v>
+        <v>28600</v>
       </c>
       <c r="I52" s="3">
-        <v>30200</v>
+        <v>30000</v>
       </c>
       <c r="J52" s="3">
-        <v>16900</v>
+        <v>16800</v>
       </c>
       <c r="K52" s="3">
         <v>23100</v>
@@ -1956,25 +1956,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>411500</v>
+        <v>407700</v>
       </c>
       <c r="E54" s="3">
-        <v>239000</v>
+        <v>236800</v>
       </c>
       <c r="F54" s="3">
-        <v>229200</v>
+        <v>227100</v>
       </c>
       <c r="G54" s="3">
-        <v>256700</v>
+        <v>254300</v>
       </c>
       <c r="H54" s="3">
-        <v>241800</v>
+        <v>239500</v>
       </c>
       <c r="I54" s="3">
-        <v>256300</v>
+        <v>253900</v>
       </c>
       <c r="J54" s="3">
-        <v>250800</v>
+        <v>248500</v>
       </c>
       <c r="K54" s="3">
         <v>163900</v>
@@ -2014,25 +2014,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="E57" s="3">
         <v>600</v>
       </c>
       <c r="F57" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="G57" s="3">
-        <v>10300</v>
+        <v>10200</v>
       </c>
       <c r="H57" s="3">
-        <v>8400</v>
+        <v>8300</v>
       </c>
       <c r="I57" s="3">
-        <v>7500</v>
+        <v>7400</v>
       </c>
       <c r="J57" s="3">
-        <v>12400</v>
+        <v>12300</v>
       </c>
       <c r="K57" s="3">
         <v>6000</v>
@@ -2050,19 +2050,19 @@
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>22000</v>
+        <v>21800</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="I58" s="3">
         <v>8200</v>
       </c>
       <c r="J58" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="K58" s="3">
         <v>100</v>
@@ -2077,10 +2077,10 @@
         <v>4000</v>
       </c>
       <c r="E59" s="3">
-        <v>15400</v>
+        <v>15300</v>
       </c>
       <c r="F59" s="3">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="G59" s="3">
         <v>1200</v>
@@ -2104,25 +2104,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8000</v>
+        <v>7900</v>
       </c>
       <c r="E60" s="3">
-        <v>16100</v>
+        <v>15900</v>
       </c>
       <c r="F60" s="3">
-        <v>29500</v>
+        <v>29300</v>
       </c>
       <c r="G60" s="3">
-        <v>11500</v>
+        <v>11400</v>
       </c>
       <c r="H60" s="3">
-        <v>12900</v>
+        <v>12800</v>
       </c>
       <c r="I60" s="3">
-        <v>15800</v>
+        <v>15600</v>
       </c>
       <c r="J60" s="3">
-        <v>18400</v>
+        <v>18200</v>
       </c>
       <c r="K60" s="3">
         <v>8200</v>
@@ -2143,16 +2143,16 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>20700</v>
+        <v>20500</v>
       </c>
       <c r="H61" s="3">
-        <v>31400</v>
+        <v>31100</v>
       </c>
       <c r="I61" s="3">
-        <v>30300</v>
+        <v>30000</v>
       </c>
       <c r="J61" s="3">
-        <v>37700</v>
+        <v>37400</v>
       </c>
       <c r="K61" s="3">
         <v>20100</v>
@@ -2164,25 +2164,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>18000</v>
+        <v>17800</v>
       </c>
       <c r="E62" s="3">
-        <v>17400</v>
+        <v>17300</v>
       </c>
       <c r="F62" s="3">
-        <v>29300</v>
+        <v>29000</v>
       </c>
       <c r="G62" s="3">
-        <v>35500</v>
+        <v>35100</v>
       </c>
       <c r="H62" s="3">
-        <v>31400</v>
+        <v>31100</v>
       </c>
       <c r="I62" s="3">
-        <v>30300</v>
+        <v>30100</v>
       </c>
       <c r="J62" s="3">
-        <v>12700</v>
+        <v>12600</v>
       </c>
       <c r="K62" s="3">
         <v>26400</v>
@@ -2284,25 +2284,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>31100</v>
+        <v>30900</v>
       </c>
       <c r="E66" s="3">
-        <v>38400</v>
+        <v>38000</v>
       </c>
       <c r="F66" s="3">
-        <v>63700</v>
+        <v>63100</v>
       </c>
       <c r="G66" s="3">
-        <v>72600</v>
+        <v>72000</v>
       </c>
       <c r="H66" s="3">
-        <v>77600</v>
+        <v>76900</v>
       </c>
       <c r="I66" s="3">
-        <v>81300</v>
+        <v>80600</v>
       </c>
       <c r="J66" s="3">
-        <v>74300</v>
+        <v>73600</v>
       </c>
       <c r="K66" s="3">
         <v>35400</v>
@@ -2448,25 +2448,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-516900</v>
+        <v>-512100</v>
       </c>
       <c r="E72" s="3">
-        <v>-518900</v>
+        <v>-514100</v>
       </c>
       <c r="F72" s="3">
-        <v>-482700</v>
+        <v>-478200</v>
       </c>
       <c r="G72" s="3">
-        <v>-433100</v>
+        <v>-429200</v>
       </c>
       <c r="H72" s="3">
-        <v>-400200</v>
+        <v>-396500</v>
       </c>
       <c r="I72" s="3">
-        <v>-367200</v>
+        <v>-363800</v>
       </c>
       <c r="J72" s="3">
-        <v>-315800</v>
+        <v>-312900</v>
       </c>
       <c r="K72" s="3">
         <v>-197700</v>
@@ -2568,25 +2568,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>380300</v>
+        <v>376800</v>
       </c>
       <c r="E76" s="3">
-        <v>200600</v>
+        <v>198800</v>
       </c>
       <c r="F76" s="3">
-        <v>165500</v>
+        <v>164000</v>
       </c>
       <c r="G76" s="3">
-        <v>184000</v>
+        <v>182300</v>
       </c>
       <c r="H76" s="3">
-        <v>164200</v>
+        <v>162700</v>
       </c>
       <c r="I76" s="3">
+        <v>173300</v>
+      </c>
+      <c r="J76" s="3">
         <v>174900</v>
-      </c>
-      <c r="J76" s="3">
-        <v>176500</v>
       </c>
       <c r="K76" s="3">
         <v>128500</v>
@@ -2666,22 +2666,22 @@
         <v>2000</v>
       </c>
       <c r="E81" s="3">
-        <v>-36200</v>
+        <v>-35900</v>
       </c>
       <c r="F81" s="3">
-        <v>-49500</v>
+        <v>-49100</v>
       </c>
       <c r="G81" s="3">
-        <v>-32900</v>
+        <v>-32600</v>
       </c>
       <c r="H81" s="3">
-        <v>-36200</v>
+        <v>-35900</v>
       </c>
       <c r="I81" s="3">
-        <v>-51400</v>
+        <v>-50900</v>
       </c>
       <c r="J81" s="3">
-        <v>-107200</v>
+        <v>-106300</v>
       </c>
       <c r="K81" s="3">
         <v>-110400</v>
@@ -2707,7 +2707,7 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="E83" s="3">
         <v>3500</v>
@@ -2722,10 +2722,10 @@
         <v>6000</v>
       </c>
       <c r="I83" s="3">
-        <v>5600</v>
+        <v>5500</v>
       </c>
       <c r="J83" s="3">
-        <v>10200</v>
+        <v>10100</v>
       </c>
       <c r="K83" s="3">
         <v>8700</v>
@@ -2887,22 +2887,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-38200</v>
+        <v>-37900</v>
       </c>
       <c r="E89" s="3">
-        <v>-42000</v>
+        <v>-41600</v>
       </c>
       <c r="F89" s="3">
-        <v>-57900</v>
+        <v>-57400</v>
       </c>
       <c r="G89" s="3">
-        <v>-10200</v>
+        <v>-10100</v>
       </c>
       <c r="H89" s="3">
-        <v>-13500</v>
+        <v>-13400</v>
       </c>
       <c r="I89" s="3">
-        <v>-15700</v>
+        <v>-15600</v>
       </c>
       <c r="J89" s="3">
         <v>-2700</v>
@@ -3021,25 +3021,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="E94" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="F94" s="3">
-        <v>29400</v>
+        <v>29200</v>
       </c>
       <c r="G94" s="3">
-        <v>-26300</v>
+        <v>-26100</v>
       </c>
       <c r="H94" s="3">
         <v>1400</v>
       </c>
       <c r="I94" s="3">
-        <v>-8200</v>
+        <v>-8100</v>
       </c>
       <c r="J94" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="K94" s="3">
         <v>14200</v>
@@ -3185,22 +3185,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>153800</v>
+        <v>152400</v>
       </c>
       <c r="E100" s="3">
-        <v>47700</v>
+        <v>47300</v>
       </c>
       <c r="F100" s="3">
-        <v>26600</v>
+        <v>26300</v>
       </c>
       <c r="G100" s="3">
-        <v>28200</v>
+        <v>27900</v>
       </c>
       <c r="H100" s="3">
-        <v>13600</v>
+        <v>13500</v>
       </c>
       <c r="I100" s="3">
-        <v>28900</v>
+        <v>28700</v>
       </c>
       <c r="J100" s="3">
         <v>1800</v>
@@ -3245,16 +3245,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>119800</v>
+        <v>118700</v>
       </c>
       <c r="E102" s="3">
-        <v>10600</v>
+        <v>10500</v>
       </c>
       <c r="F102" s="3">
         <v>-1800</v>
       </c>
       <c r="G102" s="3">
-        <v>-8400</v>
+        <v>-8300</v>
       </c>
       <c r="H102" s="3">
         <v>2200</v>

--- a/AAII_Financials/Yearly/EFR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/EFR_YR_FIN.xlsx
@@ -714,25 +714,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="E8" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="F8" s="3">
-        <v>7600</v>
+        <v>7800</v>
       </c>
       <c r="G8" s="3">
-        <v>41000</v>
+        <v>42200</v>
       </c>
       <c r="H8" s="3">
-        <v>40100</v>
+        <v>41300</v>
       </c>
       <c r="I8" s="3">
-        <v>70500</v>
+        <v>72700</v>
       </c>
       <c r="J8" s="3">
-        <v>79300</v>
+        <v>81700</v>
       </c>
       <c r="K8" s="3">
         <v>58900</v>
@@ -744,25 +744,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F9" s="3">
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="G9" s="3">
-        <v>19100</v>
+        <v>19600</v>
       </c>
       <c r="H9" s="3">
-        <v>25100</v>
+        <v>25800</v>
       </c>
       <c r="I9" s="3">
-        <v>45800</v>
+        <v>47200</v>
       </c>
       <c r="J9" s="3">
-        <v>48600</v>
+        <v>50100</v>
       </c>
       <c r="K9" s="3">
         <v>38100</v>
@@ -780,19 +780,19 @@
         <v>5</v>
       </c>
       <c r="F10" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="G10" s="3">
-        <v>21900</v>
+        <v>22600</v>
       </c>
       <c r="H10" s="3">
-        <v>15000</v>
+        <v>15500</v>
       </c>
       <c r="I10" s="3">
-        <v>24700</v>
+        <v>25400</v>
       </c>
       <c r="J10" s="3">
-        <v>30700</v>
+        <v>31600</v>
       </c>
       <c r="K10" s="3">
         <v>20800</v>
@@ -881,22 +881,22 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="F14" s="3">
-        <v>18500</v>
+        <v>19100</v>
       </c>
       <c r="G14" s="3">
-        <v>5900</v>
+        <v>6100</v>
       </c>
       <c r="H14" s="3">
-        <v>9600</v>
+        <v>9800</v>
       </c>
       <c r="I14" s="3">
-        <v>8300</v>
+        <v>8500</v>
       </c>
       <c r="J14" s="3">
-        <v>84800</v>
+        <v>87400</v>
       </c>
       <c r="K14" s="3">
         <v>102500</v>
@@ -917,16 +917,16 @@
         <v>0</v>
       </c>
       <c r="G15" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="H15" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="I15" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="J15" s="3">
-        <v>6900</v>
+        <v>7100</v>
       </c>
       <c r="K15" s="3">
         <v>5000</v>
@@ -949,25 +949,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>49900</v>
+        <v>51400</v>
       </c>
       <c r="E17" s="3">
-        <v>34000</v>
+        <v>35000</v>
       </c>
       <c r="F17" s="3">
-        <v>60000</v>
+        <v>61900</v>
       </c>
       <c r="G17" s="3">
-        <v>68500</v>
+        <v>70600</v>
       </c>
       <c r="H17" s="3">
-        <v>76900</v>
+        <v>79200</v>
       </c>
       <c r="I17" s="3">
-        <v>120600</v>
+        <v>124300</v>
       </c>
       <c r="J17" s="3">
-        <v>182600</v>
+        <v>188100</v>
       </c>
       <c r="K17" s="3">
         <v>169200</v>
@@ -979,25 +979,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-45800</v>
+        <v>-47200</v>
       </c>
       <c r="E18" s="3">
-        <v>-31800</v>
+        <v>-32800</v>
       </c>
       <c r="F18" s="3">
-        <v>-52400</v>
+        <v>-54000</v>
       </c>
       <c r="G18" s="3">
-        <v>-27500</v>
+        <v>-28400</v>
       </c>
       <c r="H18" s="3">
-        <v>-36800</v>
+        <v>-37900</v>
       </c>
       <c r="I18" s="3">
-        <v>-50100</v>
+        <v>-51600</v>
       </c>
       <c r="J18" s="3">
-        <v>-103300</v>
+        <v>-106400</v>
       </c>
       <c r="K18" s="3">
         <v>-110300</v>
@@ -1023,25 +1023,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>47700</v>
+        <v>49200</v>
       </c>
       <c r="E20" s="3">
-        <v>-3000</v>
+        <v>-3100</v>
       </c>
       <c r="F20" s="3">
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="G20" s="3">
-        <v>-3000</v>
+        <v>-3100</v>
       </c>
       <c r="H20" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="I20" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="J20" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -1053,25 +1053,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6100</v>
+        <v>6300</v>
       </c>
       <c r="E21" s="3">
-        <v>-31300</v>
+        <v>-32200</v>
       </c>
       <c r="F21" s="3">
-        <v>-45700</v>
+        <v>-47100</v>
       </c>
       <c r="G21" s="3">
-        <v>-25600</v>
+        <v>-26400</v>
       </c>
       <c r="H21" s="3">
-        <v>-27400</v>
+        <v>-28200</v>
       </c>
       <c r="I21" s="3">
-        <v>-43000</v>
+        <v>-44300</v>
       </c>
       <c r="J21" s="3">
-        <v>-93700</v>
+        <v>-96400</v>
       </c>
       <c r="K21" s="3">
         <v>-101600</v>
@@ -1086,22 +1086,22 @@
         <v>100</v>
       </c>
       <c r="E22" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="F22" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="G22" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="H22" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="I22" s="3">
         <v>3000</v>
       </c>
       <c r="J22" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>5</v>
@@ -1116,22 +1116,22 @@
         <v>1900</v>
       </c>
       <c r="E23" s="3">
-        <v>-36000</v>
+        <v>-37100</v>
       </c>
       <c r="F23" s="3">
-        <v>-49200</v>
+        <v>-50700</v>
       </c>
       <c r="G23" s="3">
-        <v>-32800</v>
+        <v>-33800</v>
       </c>
       <c r="H23" s="3">
-        <v>-36200</v>
+        <v>-37300</v>
       </c>
       <c r="I23" s="3">
-        <v>-51500</v>
+        <v>-53100</v>
       </c>
       <c r="J23" s="3">
-        <v>-106400</v>
+        <v>-109700</v>
       </c>
       <c r="K23" s="3">
         <v>-110300</v>
@@ -1206,22 +1206,22 @@
         <v>1900</v>
       </c>
       <c r="E26" s="3">
-        <v>-36000</v>
+        <v>-37100</v>
       </c>
       <c r="F26" s="3">
-        <v>-49200</v>
+        <v>-50700</v>
       </c>
       <c r="G26" s="3">
-        <v>-32800</v>
+        <v>-33800</v>
       </c>
       <c r="H26" s="3">
-        <v>-36200</v>
+        <v>-37300</v>
       </c>
       <c r="I26" s="3">
-        <v>-51500</v>
+        <v>-53100</v>
       </c>
       <c r="J26" s="3">
-        <v>-106400</v>
+        <v>-109700</v>
       </c>
       <c r="K26" s="3">
         <v>-110400</v>
@@ -1233,25 +1233,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="E27" s="3">
-        <v>-35900</v>
+        <v>-37000</v>
       </c>
       <c r="F27" s="3">
-        <v>-49100</v>
+        <v>-50600</v>
       </c>
       <c r="G27" s="3">
-        <v>-32600</v>
+        <v>-33600</v>
       </c>
       <c r="H27" s="3">
-        <v>-35900</v>
+        <v>-37000</v>
       </c>
       <c r="I27" s="3">
-        <v>-50900</v>
+        <v>-52500</v>
       </c>
       <c r="J27" s="3">
-        <v>-106300</v>
+        <v>-109500</v>
       </c>
       <c r="K27" s="3">
         <v>-110400</v>
@@ -1383,25 +1383,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-47700</v>
+        <v>-49200</v>
       </c>
       <c r="E32" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="F32" s="3">
-        <v>-5100</v>
+        <v>-5300</v>
       </c>
       <c r="G32" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="H32" s="3">
-        <v>-3300</v>
+        <v>-3400</v>
       </c>
       <c r="I32" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="J32" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
@@ -1413,25 +1413,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="E33" s="3">
-        <v>-35900</v>
+        <v>-37000</v>
       </c>
       <c r="F33" s="3">
-        <v>-49100</v>
+        <v>-50600</v>
       </c>
       <c r="G33" s="3">
-        <v>-32600</v>
+        <v>-33600</v>
       </c>
       <c r="H33" s="3">
-        <v>-35900</v>
+        <v>-37000</v>
       </c>
       <c r="I33" s="3">
-        <v>-50900</v>
+        <v>-52500</v>
       </c>
       <c r="J33" s="3">
-        <v>-106300</v>
+        <v>-109500</v>
       </c>
       <c r="K33" s="3">
         <v>-110400</v>
@@ -1473,25 +1473,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="E35" s="3">
-        <v>-35900</v>
+        <v>-37000</v>
       </c>
       <c r="F35" s="3">
-        <v>-49100</v>
+        <v>-50600</v>
       </c>
       <c r="G35" s="3">
-        <v>-32600</v>
+        <v>-33600</v>
       </c>
       <c r="H35" s="3">
-        <v>-35900</v>
+        <v>-37000</v>
       </c>
       <c r="I35" s="3">
-        <v>-50900</v>
+        <v>-52500</v>
       </c>
       <c r="J35" s="3">
-        <v>-106300</v>
+        <v>-109500</v>
       </c>
       <c r="K35" s="3">
         <v>-110400</v>
@@ -1566,25 +1566,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>145400</v>
+        <v>149900</v>
       </c>
       <c r="E41" s="3">
-        <v>26100</v>
+        <v>26900</v>
       </c>
       <c r="F41" s="3">
-        <v>16600</v>
+        <v>17100</v>
       </c>
       <c r="G41" s="3">
-        <v>18900</v>
+        <v>19500</v>
       </c>
       <c r="H41" s="3">
-        <v>24000</v>
+        <v>24700</v>
       </c>
       <c r="I41" s="3">
-        <v>21800</v>
+        <v>22500</v>
       </c>
       <c r="J41" s="3">
-        <v>16800</v>
+        <v>17300</v>
       </c>
       <c r="K41" s="3">
         <v>13300</v>
@@ -1596,16 +1596,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E42" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="F42" s="3">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="G42" s="3">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>5</v>
@@ -1626,25 +1626,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="E43" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="F43" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G43" s="3">
         <v>1600</v>
       </c>
-      <c r="G43" s="3">
-        <v>1500</v>
-      </c>
       <c r="H43" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="I43" s="3">
         <v>500</v>
       </c>
       <c r="J43" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="K43" s="3">
         <v>800</v>
@@ -1656,25 +1656,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>39800</v>
+        <v>41000</v>
       </c>
       <c r="E44" s="3">
-        <v>35600</v>
+        <v>36700</v>
       </c>
       <c r="F44" s="3">
-        <v>29500</v>
+        <v>30400</v>
       </c>
       <c r="G44" s="3">
-        <v>21400</v>
+        <v>22000</v>
       </c>
       <c r="H44" s="3">
-        <v>21400</v>
+        <v>22000</v>
       </c>
       <c r="I44" s="3">
-        <v>21700</v>
+        <v>22300</v>
       </c>
       <c r="J44" s="3">
-        <v>39600</v>
+        <v>40800</v>
       </c>
       <c r="K44" s="3">
         <v>38900</v>
@@ -1686,7 +1686,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="E45" s="3">
         <v>1700</v>
@@ -1695,16 +1695,16 @@
         <v>1900</v>
       </c>
       <c r="G45" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="H45" s="3">
-        <v>8800</v>
+        <v>9100</v>
       </c>
       <c r="I45" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="J45" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="K45" s="3">
         <v>3500</v>
@@ -1716,25 +1716,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>193000</v>
+        <v>198800</v>
       </c>
       <c r="E46" s="3">
-        <v>67800</v>
+        <v>69900</v>
       </c>
       <c r="F46" s="3">
-        <v>55800</v>
+        <v>57500</v>
       </c>
       <c r="G46" s="3">
-        <v>78600</v>
+        <v>81000</v>
       </c>
       <c r="H46" s="3">
-        <v>55800</v>
+        <v>57500</v>
       </c>
       <c r="I46" s="3">
-        <v>46700</v>
+        <v>48100</v>
       </c>
       <c r="J46" s="3">
-        <v>63300</v>
+        <v>65200</v>
       </c>
       <c r="K46" s="3">
         <v>56400</v>
@@ -1746,16 +1746,16 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>49800</v>
+        <v>51300</v>
       </c>
       <c r="E47" s="3">
         <v>1000</v>
       </c>
       <c r="F47" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="G47" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="H47" s="3">
         <v>1200</v>
@@ -1764,7 +1764,7 @@
         <v>1500</v>
       </c>
       <c r="J47" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K47" s="3">
         <v>1800</v>
@@ -1776,25 +1776,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>136900</v>
+        <v>141100</v>
       </c>
       <c r="E48" s="3">
-        <v>139300</v>
+        <v>143600</v>
       </c>
       <c r="F48" s="3">
-        <v>143000</v>
+        <v>147400</v>
       </c>
       <c r="G48" s="3">
-        <v>146500</v>
+        <v>151000</v>
       </c>
       <c r="H48" s="3">
-        <v>150700</v>
+        <v>155300</v>
       </c>
       <c r="I48" s="3">
-        <v>168300</v>
+        <v>173400</v>
       </c>
       <c r="J48" s="3">
-        <v>155200</v>
+        <v>159900</v>
       </c>
       <c r="K48" s="3">
         <v>245000</v>
@@ -1818,13 +1818,13 @@
         <v>0</v>
       </c>
       <c r="H49" s="3">
-        <v>6500</v>
+        <v>6700</v>
       </c>
       <c r="I49" s="3">
-        <v>7500</v>
+        <v>7700</v>
       </c>
       <c r="J49" s="3">
-        <v>11800</v>
+        <v>12100</v>
       </c>
       <c r="K49" s="3">
         <v>9900</v>
@@ -1896,25 +1896,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>28000</v>
+        <v>28900</v>
       </c>
       <c r="E52" s="3">
-        <v>28600</v>
+        <v>29500</v>
       </c>
       <c r="F52" s="3">
-        <v>27400</v>
+        <v>28300</v>
       </c>
       <c r="G52" s="3">
-        <v>27700</v>
+        <v>28500</v>
       </c>
       <c r="H52" s="3">
-        <v>28600</v>
+        <v>29500</v>
       </c>
       <c r="I52" s="3">
-        <v>30000</v>
+        <v>30900</v>
       </c>
       <c r="J52" s="3">
-        <v>16800</v>
+        <v>17300</v>
       </c>
       <c r="K52" s="3">
         <v>23100</v>
@@ -1956,25 +1956,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>407700</v>
+        <v>420100</v>
       </c>
       <c r="E54" s="3">
-        <v>236800</v>
+        <v>244000</v>
       </c>
       <c r="F54" s="3">
-        <v>227100</v>
+        <v>234000</v>
       </c>
       <c r="G54" s="3">
-        <v>254300</v>
+        <v>262100</v>
       </c>
       <c r="H54" s="3">
-        <v>239500</v>
+        <v>246800</v>
       </c>
       <c r="I54" s="3">
-        <v>253900</v>
+        <v>261600</v>
       </c>
       <c r="J54" s="3">
-        <v>248500</v>
+        <v>256100</v>
       </c>
       <c r="K54" s="3">
         <v>163900</v>
@@ -2014,25 +2014,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="E57" s="3">
         <v>600</v>
       </c>
       <c r="F57" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="G57" s="3">
-        <v>10200</v>
+        <v>10500</v>
       </c>
       <c r="H57" s="3">
-        <v>8300</v>
+        <v>8600</v>
       </c>
       <c r="I57" s="3">
-        <v>7400</v>
+        <v>7700</v>
       </c>
       <c r="J57" s="3">
-        <v>12300</v>
+        <v>12700</v>
       </c>
       <c r="K57" s="3">
         <v>6000</v>
@@ -2050,19 +2050,19 @@
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>21800</v>
+        <v>22500</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="I58" s="3">
-        <v>8200</v>
+        <v>8400</v>
       </c>
       <c r="J58" s="3">
-        <v>4600</v>
+        <v>4800</v>
       </c>
       <c r="K58" s="3">
         <v>100</v>
@@ -2074,13 +2074,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="E59" s="3">
-        <v>15300</v>
+        <v>15800</v>
       </c>
       <c r="F59" s="3">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="G59" s="3">
         <v>1200</v>
@@ -2104,25 +2104,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7900</v>
+        <v>8100</v>
       </c>
       <c r="E60" s="3">
-        <v>15900</v>
+        <v>16400</v>
       </c>
       <c r="F60" s="3">
-        <v>29300</v>
+        <v>30100</v>
       </c>
       <c r="G60" s="3">
-        <v>11400</v>
+        <v>11800</v>
       </c>
       <c r="H60" s="3">
-        <v>12800</v>
+        <v>13200</v>
       </c>
       <c r="I60" s="3">
-        <v>15600</v>
+        <v>16100</v>
       </c>
       <c r="J60" s="3">
-        <v>18200</v>
+        <v>18800</v>
       </c>
       <c r="K60" s="3">
         <v>8200</v>
@@ -2143,16 +2143,16 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>20500</v>
+        <v>21100</v>
       </c>
       <c r="H61" s="3">
-        <v>31100</v>
+        <v>32100</v>
       </c>
       <c r="I61" s="3">
-        <v>30000</v>
+        <v>30900</v>
       </c>
       <c r="J61" s="3">
-        <v>37400</v>
+        <v>38500</v>
       </c>
       <c r="K61" s="3">
         <v>20100</v>
@@ -2164,25 +2164,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E62" s="3">
         <v>17800</v>
       </c>
-      <c r="E62" s="3">
-        <v>17300</v>
-      </c>
       <c r="F62" s="3">
-        <v>29000</v>
+        <v>29900</v>
       </c>
       <c r="G62" s="3">
-        <v>35100</v>
+        <v>36200</v>
       </c>
       <c r="H62" s="3">
-        <v>31100</v>
+        <v>32100</v>
       </c>
       <c r="I62" s="3">
-        <v>30100</v>
+        <v>31000</v>
       </c>
       <c r="J62" s="3">
-        <v>12600</v>
+        <v>13000</v>
       </c>
       <c r="K62" s="3">
         <v>26400</v>
@@ -2284,25 +2284,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>30900</v>
+        <v>31800</v>
       </c>
       <c r="E66" s="3">
-        <v>38000</v>
+        <v>39200</v>
       </c>
       <c r="F66" s="3">
-        <v>63100</v>
+        <v>65000</v>
       </c>
       <c r="G66" s="3">
-        <v>72000</v>
+        <v>74200</v>
       </c>
       <c r="H66" s="3">
-        <v>76900</v>
+        <v>79200</v>
       </c>
       <c r="I66" s="3">
-        <v>80600</v>
+        <v>83000</v>
       </c>
       <c r="J66" s="3">
-        <v>73600</v>
+        <v>75800</v>
       </c>
       <c r="K66" s="3">
         <v>35400</v>
@@ -2448,25 +2448,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-512100</v>
+        <v>-527800</v>
       </c>
       <c r="E72" s="3">
-        <v>-514100</v>
+        <v>-529800</v>
       </c>
       <c r="F72" s="3">
-        <v>-478200</v>
+        <v>-492800</v>
       </c>
       <c r="G72" s="3">
-        <v>-429200</v>
+        <v>-442200</v>
       </c>
       <c r="H72" s="3">
-        <v>-396500</v>
+        <v>-408600</v>
       </c>
       <c r="I72" s="3">
-        <v>-363800</v>
+        <v>-374900</v>
       </c>
       <c r="J72" s="3">
-        <v>-312900</v>
+        <v>-322400</v>
       </c>
       <c r="K72" s="3">
         <v>-197700</v>
@@ -2568,25 +2568,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>376800</v>
+        <v>388300</v>
       </c>
       <c r="E76" s="3">
-        <v>198800</v>
+        <v>204800</v>
       </c>
       <c r="F76" s="3">
-        <v>164000</v>
+        <v>169000</v>
       </c>
       <c r="G76" s="3">
-        <v>182300</v>
+        <v>187900</v>
       </c>
       <c r="H76" s="3">
-        <v>162700</v>
+        <v>167600</v>
       </c>
       <c r="I76" s="3">
-        <v>173300</v>
+        <v>178600</v>
       </c>
       <c r="J76" s="3">
-        <v>174900</v>
+        <v>180200</v>
       </c>
       <c r="K76" s="3">
         <v>128500</v>
@@ -2663,25 +2663,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="E81" s="3">
-        <v>-35900</v>
+        <v>-37000</v>
       </c>
       <c r="F81" s="3">
-        <v>-49100</v>
+        <v>-50600</v>
       </c>
       <c r="G81" s="3">
-        <v>-32600</v>
+        <v>-33600</v>
       </c>
       <c r="H81" s="3">
-        <v>-35900</v>
+        <v>-37000</v>
       </c>
       <c r="I81" s="3">
-        <v>-50900</v>
+        <v>-52500</v>
       </c>
       <c r="J81" s="3">
-        <v>-106300</v>
+        <v>-109500</v>
       </c>
       <c r="K81" s="3">
         <v>-110400</v>
@@ -2707,25 +2707,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="E83" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="F83" s="3">
         <v>1600</v>
       </c>
       <c r="G83" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="H83" s="3">
-        <v>6000</v>
+        <v>6200</v>
       </c>
       <c r="I83" s="3">
-        <v>5500</v>
+        <v>5700</v>
       </c>
       <c r="J83" s="3">
-        <v>10100</v>
+        <v>10400</v>
       </c>
       <c r="K83" s="3">
         <v>8700</v>
@@ -2887,25 +2887,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-37900</v>
+        <v>-39000</v>
       </c>
       <c r="E89" s="3">
-        <v>-41600</v>
+        <v>-42900</v>
       </c>
       <c r="F89" s="3">
-        <v>-57400</v>
+        <v>-59100</v>
       </c>
       <c r="G89" s="3">
-        <v>-10100</v>
+        <v>-10400</v>
       </c>
       <c r="H89" s="3">
-        <v>-13400</v>
+        <v>-13800</v>
       </c>
       <c r="I89" s="3">
-        <v>-15600</v>
+        <v>-16000</v>
       </c>
       <c r="J89" s="3">
-        <v>-2700</v>
+        <v>-2800</v>
       </c>
       <c r="K89" s="3">
         <v>-9800</v>
@@ -2949,7 +2949,7 @@
         <v>-300</v>
       </c>
       <c r="J91" s="3">
-        <v>-5600</v>
+        <v>-5700</v>
       </c>
       <c r="K91" s="3">
         <v>-4300</v>
@@ -3021,25 +3021,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="E94" s="3">
-        <v>4600</v>
+        <v>4800</v>
       </c>
       <c r="F94" s="3">
-        <v>29200</v>
+        <v>30100</v>
       </c>
       <c r="G94" s="3">
-        <v>-26100</v>
+        <v>-26900</v>
       </c>
       <c r="H94" s="3">
         <v>1400</v>
       </c>
       <c r="I94" s="3">
-        <v>-8100</v>
+        <v>-8300</v>
       </c>
       <c r="J94" s="3">
-        <v>4400</v>
+        <v>4600</v>
       </c>
       <c r="K94" s="3">
         <v>14200</v>
@@ -3185,22 +3185,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>152400</v>
+        <v>157100</v>
       </c>
       <c r="E100" s="3">
-        <v>47300</v>
+        <v>48700</v>
       </c>
       <c r="F100" s="3">
-        <v>26300</v>
+        <v>27100</v>
       </c>
       <c r="G100" s="3">
-        <v>27900</v>
+        <v>28800</v>
       </c>
       <c r="H100" s="3">
-        <v>13500</v>
+        <v>13900</v>
       </c>
       <c r="I100" s="3">
-        <v>28700</v>
+        <v>29500</v>
       </c>
       <c r="J100" s="3">
         <v>1800</v>
@@ -3245,25 +3245,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>118700</v>
+        <v>122300</v>
       </c>
       <c r="E102" s="3">
-        <v>10500</v>
+        <v>10800</v>
       </c>
       <c r="F102" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="G102" s="3">
-        <v>-8300</v>
+        <v>-8500</v>
       </c>
       <c r="H102" s="3">
         <v>2200</v>
       </c>
       <c r="I102" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="J102" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="K102" s="3">
         <v>4800</v>

--- a/AAII_Financials/Yearly/EFR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/EFR_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>EFR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4200</v>
+        <v>17300</v>
       </c>
       <c r="E8" s="3">
-        <v>2200</v>
+        <v>4400</v>
       </c>
       <c r="F8" s="3">
-        <v>7800</v>
+        <v>2300</v>
       </c>
       <c r="G8" s="3">
-        <v>42200</v>
+        <v>8100</v>
       </c>
       <c r="H8" s="3">
-        <v>41300</v>
+        <v>43900</v>
       </c>
       <c r="I8" s="3">
-        <v>72700</v>
+        <v>42900</v>
       </c>
       <c r="J8" s="3">
+        <v>75400</v>
+      </c>
+      <c r="K8" s="3">
         <v>81700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>58900</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2400</v>
-      </c>
-      <c r="E9" s="3" t="s">
+        <v>10800</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="3">
-        <v>5300</v>
-      </c>
       <c r="G9" s="3">
-        <v>19600</v>
+        <v>5500</v>
       </c>
       <c r="H9" s="3">
-        <v>25800</v>
+        <v>20400</v>
       </c>
       <c r="I9" s="3">
-        <v>47200</v>
+        <v>26800</v>
       </c>
       <c r="J9" s="3">
+        <v>49000</v>
+      </c>
+      <c r="K9" s="3">
         <v>50100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>38100</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>1800</v>
-      </c>
-      <c r="E10" s="3" t="s">
+        <v>6500</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="3">
-        <v>2600</v>
-      </c>
       <c r="G10" s="3">
-        <v>22600</v>
+        <v>2700</v>
       </c>
       <c r="H10" s="3">
-        <v>15500</v>
+        <v>23500</v>
       </c>
       <c r="I10" s="3">
-        <v>25400</v>
+        <v>16100</v>
       </c>
       <c r="J10" s="3">
+        <v>26400</v>
+      </c>
+      <c r="K10" s="3">
         <v>31600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>20800</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,8 +824,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -841,9 +854,12 @@
       <c r="K12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,9 +887,12 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -881,29 +900,32 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>2200</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>19100</v>
+        <v>2300</v>
       </c>
       <c r="G14" s="3">
-        <v>6100</v>
+        <v>19800</v>
       </c>
       <c r="H14" s="3">
-        <v>9800</v>
+        <v>6300</v>
       </c>
       <c r="I14" s="3">
-        <v>8500</v>
+        <v>10200</v>
       </c>
       <c r="J14" s="3">
+        <v>8800</v>
+      </c>
+      <c r="K14" s="3">
         <v>87400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>102500</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -913,27 +935,30 @@
       <c r="E15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="3">
-        <v>0</v>
+      <c r="F15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G15" s="3">
-        <v>3300</v>
+        <v>0</v>
       </c>
       <c r="H15" s="3">
-        <v>4400</v>
+        <v>3500</v>
       </c>
       <c r="I15" s="3">
-        <v>4400</v>
+        <v>4600</v>
       </c>
       <c r="J15" s="3">
+        <v>4600</v>
+      </c>
+      <c r="K15" s="3">
         <v>7100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>5000</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>51400</v>
+        <v>79400</v>
       </c>
       <c r="E17" s="3">
-        <v>35000</v>
+        <v>53400</v>
       </c>
       <c r="F17" s="3">
-        <v>61900</v>
+        <v>36300</v>
       </c>
       <c r="G17" s="3">
-        <v>70600</v>
+        <v>64200</v>
       </c>
       <c r="H17" s="3">
-        <v>79200</v>
+        <v>73300</v>
       </c>
       <c r="I17" s="3">
-        <v>124300</v>
+        <v>82300</v>
       </c>
       <c r="J17" s="3">
+        <v>129000</v>
+      </c>
+      <c r="K17" s="3">
         <v>188100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>169200</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-47200</v>
+        <v>-62100</v>
       </c>
       <c r="E18" s="3">
-        <v>-32800</v>
+        <v>-49000</v>
       </c>
       <c r="F18" s="3">
-        <v>-54000</v>
+        <v>-34100</v>
       </c>
       <c r="G18" s="3">
-        <v>-28400</v>
+        <v>-56100</v>
       </c>
       <c r="H18" s="3">
-        <v>-37900</v>
+        <v>-29500</v>
       </c>
       <c r="I18" s="3">
-        <v>-51600</v>
+        <v>-39300</v>
       </c>
       <c r="J18" s="3">
+        <v>-53600</v>
+      </c>
+      <c r="K18" s="3">
         <v>-106400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-110300</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,128 +1049,141 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>49200</v>
+        <v>-20700</v>
       </c>
       <c r="E20" s="3">
-        <v>-3100</v>
+        <v>51100</v>
       </c>
       <c r="F20" s="3">
-        <v>5300</v>
+        <v>-3200</v>
       </c>
       <c r="G20" s="3">
-        <v>-3100</v>
+        <v>5500</v>
       </c>
       <c r="H20" s="3">
-        <v>3400</v>
+        <v>-3200</v>
       </c>
       <c r="I20" s="3">
-        <v>1600</v>
+        <v>3600</v>
       </c>
       <c r="J20" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K20" s="3">
         <v>-600</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6300</v>
+        <v>-78400</v>
       </c>
       <c r="E21" s="3">
-        <v>-32200</v>
+        <v>6500</v>
       </c>
       <c r="F21" s="3">
-        <v>-47100</v>
+        <v>-33500</v>
       </c>
       <c r="G21" s="3">
-        <v>-26400</v>
+        <v>-48900</v>
       </c>
       <c r="H21" s="3">
-        <v>-28200</v>
+        <v>-27500</v>
       </c>
       <c r="I21" s="3">
-        <v>-44300</v>
+        <v>-29400</v>
       </c>
       <c r="J21" s="3">
+        <v>-46100</v>
+      </c>
+      <c r="K21" s="3">
         <v>-96400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-101600</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="3">
         <v>100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1300</v>
       </c>
-      <c r="F22" s="3">
-        <v>2000</v>
-      </c>
       <c r="G22" s="3">
-        <v>2300</v>
+        <v>2100</v>
       </c>
       <c r="H22" s="3">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="I22" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="J22" s="3">
+        <v>3200</v>
+      </c>
+      <c r="K22" s="3">
         <v>2700</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="L22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1900</v>
+        <v>-82900</v>
       </c>
       <c r="E23" s="3">
-        <v>-37100</v>
+        <v>2000</v>
       </c>
       <c r="F23" s="3">
-        <v>-50700</v>
+        <v>-38500</v>
       </c>
       <c r="G23" s="3">
-        <v>-33800</v>
+        <v>-52700</v>
       </c>
       <c r="H23" s="3">
-        <v>-37300</v>
+        <v>-35100</v>
       </c>
       <c r="I23" s="3">
-        <v>-53100</v>
+        <v>-38700</v>
       </c>
       <c r="J23" s="3">
+        <v>-55100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-109700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-110300</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1164,11 +1209,14 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1900</v>
+        <v>-82900</v>
       </c>
       <c r="E26" s="3">
-        <v>-37100</v>
+        <v>2000</v>
       </c>
       <c r="F26" s="3">
-        <v>-50700</v>
+        <v>-38500</v>
       </c>
       <c r="G26" s="3">
-        <v>-33800</v>
+        <v>-52700</v>
       </c>
       <c r="H26" s="3">
-        <v>-37300</v>
+        <v>-35100</v>
       </c>
       <c r="I26" s="3">
-        <v>-53100</v>
+        <v>-38700</v>
       </c>
       <c r="J26" s="3">
+        <v>-55100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-109700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-110400</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-82800</v>
+      </c>
+      <c r="E27" s="3">
         <v>2100</v>
       </c>
-      <c r="E27" s="3">
-        <v>-37000</v>
-      </c>
       <c r="F27" s="3">
-        <v>-50600</v>
+        <v>-38400</v>
       </c>
       <c r="G27" s="3">
-        <v>-33600</v>
+        <v>-52500</v>
       </c>
       <c r="H27" s="3">
-        <v>-37000</v>
+        <v>-34900</v>
       </c>
       <c r="I27" s="3">
-        <v>-52500</v>
+        <v>-38400</v>
       </c>
       <c r="J27" s="3">
+        <v>-54500</v>
+      </c>
+      <c r="K27" s="3">
         <v>-109500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-110400</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,9 +1343,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1316,9 +1376,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-49200</v>
+        <v>20700</v>
       </c>
       <c r="E32" s="3">
-        <v>3100</v>
+        <v>-51100</v>
       </c>
       <c r="F32" s="3">
-        <v>-5300</v>
+        <v>3200</v>
       </c>
       <c r="G32" s="3">
-        <v>3100</v>
+        <v>-5500</v>
       </c>
       <c r="H32" s="3">
-        <v>-3400</v>
+        <v>3200</v>
       </c>
       <c r="I32" s="3">
-        <v>-1600</v>
+        <v>-3600</v>
       </c>
       <c r="J32" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="K32" s="3">
         <v>600</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-82800</v>
+      </c>
+      <c r="E33" s="3">
         <v>2100</v>
       </c>
-      <c r="E33" s="3">
-        <v>-37000</v>
-      </c>
       <c r="F33" s="3">
-        <v>-50600</v>
+        <v>-38400</v>
       </c>
       <c r="G33" s="3">
-        <v>-33600</v>
+        <v>-52500</v>
       </c>
       <c r="H33" s="3">
-        <v>-37000</v>
+        <v>-34900</v>
       </c>
       <c r="I33" s="3">
-        <v>-52500</v>
+        <v>-38400</v>
       </c>
       <c r="J33" s="3">
+        <v>-54500</v>
+      </c>
+      <c r="K33" s="3">
         <v>-109500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-110400</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-82800</v>
+      </c>
+      <c r="E35" s="3">
         <v>2100</v>
       </c>
-      <c r="E35" s="3">
-        <v>-37000</v>
-      </c>
       <c r="F35" s="3">
-        <v>-50600</v>
+        <v>-38400</v>
       </c>
       <c r="G35" s="3">
-        <v>-33600</v>
+        <v>-52500</v>
       </c>
       <c r="H35" s="3">
-        <v>-37000</v>
+        <v>-34900</v>
       </c>
       <c r="I35" s="3">
-        <v>-52500</v>
+        <v>-38400</v>
       </c>
       <c r="J35" s="3">
+        <v>-54500</v>
+      </c>
+      <c r="K35" s="3">
         <v>-109500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-110400</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,55 +1645,59 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>149900</v>
+        <v>86900</v>
       </c>
       <c r="E41" s="3">
-        <v>26900</v>
+        <v>155600</v>
       </c>
       <c r="F41" s="3">
-        <v>17100</v>
+        <v>27900</v>
       </c>
       <c r="G41" s="3">
-        <v>19500</v>
+        <v>17700</v>
       </c>
       <c r="H41" s="3">
-        <v>24700</v>
+        <v>20200</v>
       </c>
       <c r="I41" s="3">
-        <v>22500</v>
+        <v>25700</v>
       </c>
       <c r="J41" s="3">
+        <v>23400</v>
+      </c>
+      <c r="K41" s="3">
         <v>17300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>13300</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E42" s="3">
         <v>700</v>
       </c>
-      <c r="E42" s="3">
-        <v>3000</v>
-      </c>
       <c r="F42" s="3">
-        <v>6400</v>
+        <v>3100</v>
       </c>
       <c r="G42" s="3">
-        <v>36000</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>5</v>
+        <v>6700</v>
+      </c>
+      <c r="H42" s="3">
+        <v>37400</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>5</v>
@@ -1616,192 +1705,213 @@
       <c r="J42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K42" s="3">
+      <c r="K42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L42" s="3">
         <v>400</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5300</v>
+        <v>700</v>
       </c>
       <c r="E43" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F43" s="3">
         <v>1600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>800</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>41000</v>
+        <v>52800</v>
       </c>
       <c r="E44" s="3">
-        <v>36700</v>
+        <v>42500</v>
       </c>
       <c r="F44" s="3">
-        <v>30400</v>
+        <v>38100</v>
       </c>
       <c r="G44" s="3">
-        <v>22000</v>
+        <v>31500</v>
       </c>
       <c r="H44" s="3">
-        <v>22000</v>
+        <v>22900</v>
       </c>
       <c r="I44" s="3">
-        <v>22300</v>
+        <v>22900</v>
       </c>
       <c r="J44" s="3">
+        <v>23200</v>
+      </c>
+      <c r="K44" s="3">
         <v>40800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>38900</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2100</v>
+        <v>30300</v>
       </c>
       <c r="E45" s="3">
-        <v>1700</v>
+        <v>2200</v>
       </c>
       <c r="F45" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="G45" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="H45" s="3">
-        <v>9100</v>
+        <v>2000</v>
       </c>
       <c r="I45" s="3">
-        <v>2800</v>
+        <v>9400</v>
       </c>
       <c r="J45" s="3">
+        <v>2900</v>
+      </c>
+      <c r="K45" s="3">
         <v>3600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3500</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>198800</v>
+        <v>187500</v>
       </c>
       <c r="E46" s="3">
-        <v>69900</v>
+        <v>206400</v>
       </c>
       <c r="F46" s="3">
-        <v>57500</v>
+        <v>72600</v>
       </c>
       <c r="G46" s="3">
-        <v>81000</v>
+        <v>59700</v>
       </c>
       <c r="H46" s="3">
-        <v>57500</v>
+        <v>84100</v>
       </c>
       <c r="I46" s="3">
-        <v>48100</v>
+        <v>59700</v>
       </c>
       <c r="J46" s="3">
+        <v>50000</v>
+      </c>
+      <c r="K46" s="3">
         <v>65200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>56400</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>51300</v>
+        <v>28900</v>
       </c>
       <c r="E47" s="3">
-        <v>1000</v>
+        <v>53300</v>
       </c>
       <c r="F47" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G47" s="3">
         <v>900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K47" s="3">
         <v>1500</v>
       </c>
-      <c r="J47" s="3">
-        <v>1500</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1800</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>141100</v>
+        <v>134900</v>
       </c>
       <c r="E48" s="3">
-        <v>143600</v>
+        <v>146500</v>
       </c>
       <c r="F48" s="3">
-        <v>147400</v>
+        <v>149100</v>
       </c>
       <c r="G48" s="3">
-        <v>151000</v>
+        <v>153000</v>
       </c>
       <c r="H48" s="3">
-        <v>155300</v>
+        <v>156800</v>
       </c>
       <c r="I48" s="3">
-        <v>173400</v>
+        <v>161200</v>
       </c>
       <c r="J48" s="3">
+        <v>180000</v>
+      </c>
+      <c r="K48" s="3">
         <v>159900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>245000</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1814,24 +1924,27 @@
       <c r="F49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G49" s="3">
-        <v>0</v>
+      <c r="G49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H49" s="3">
-        <v>6700</v>
+        <v>0</v>
       </c>
       <c r="I49" s="3">
-        <v>7700</v>
+        <v>6900</v>
       </c>
       <c r="J49" s="3">
+        <v>8000</v>
+      </c>
+      <c r="K49" s="3">
         <v>12100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>9900</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>28900</v>
+        <v>27500</v>
       </c>
       <c r="E52" s="3">
-        <v>29500</v>
+        <v>30000</v>
       </c>
       <c r="F52" s="3">
-        <v>28300</v>
+        <v>30600</v>
       </c>
       <c r="G52" s="3">
-        <v>28500</v>
+        <v>29400</v>
       </c>
       <c r="H52" s="3">
-        <v>29500</v>
+        <v>29600</v>
       </c>
       <c r="I52" s="3">
-        <v>30900</v>
+        <v>30600</v>
       </c>
       <c r="J52" s="3">
+        <v>32000</v>
+      </c>
+      <c r="K52" s="3">
         <v>17300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>23100</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>420100</v>
+        <v>378800</v>
       </c>
       <c r="E54" s="3">
-        <v>244000</v>
+        <v>436200</v>
       </c>
       <c r="F54" s="3">
-        <v>234000</v>
+        <v>253400</v>
       </c>
       <c r="G54" s="3">
-        <v>262100</v>
+        <v>243000</v>
       </c>
       <c r="H54" s="3">
-        <v>246800</v>
+        <v>272100</v>
       </c>
       <c r="I54" s="3">
-        <v>261600</v>
+        <v>256300</v>
       </c>
       <c r="J54" s="3">
+        <v>271600</v>
+      </c>
+      <c r="K54" s="3">
         <v>256100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>163900</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,128 +2137,141 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4000</v>
+        <v>5100</v>
       </c>
       <c r="E57" s="3">
-        <v>600</v>
+        <v>4200</v>
       </c>
       <c r="F57" s="3">
-        <v>2700</v>
+        <v>700</v>
       </c>
       <c r="G57" s="3">
-        <v>10500</v>
+        <v>2800</v>
       </c>
       <c r="H57" s="3">
-        <v>8600</v>
+        <v>11000</v>
       </c>
       <c r="I57" s="3">
-        <v>7700</v>
+        <v>8900</v>
       </c>
       <c r="J57" s="3">
+        <v>8000</v>
+      </c>
+      <c r="K57" s="3">
         <v>12700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>6000</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F58" s="3">
-        <v>22500</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>0</v>
+        <v>23300</v>
       </c>
       <c r="H58" s="3">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>8400</v>
+        <v>4700</v>
       </c>
       <c r="J58" s="3">
+        <v>8700</v>
+      </c>
+      <c r="K58" s="3">
         <v>4800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>100</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4100</v>
+        <v>20700</v>
       </c>
       <c r="E59" s="3">
-        <v>15800</v>
+        <v>4300</v>
       </c>
       <c r="F59" s="3">
-        <v>5000</v>
+        <v>16400</v>
       </c>
       <c r="G59" s="3">
-        <v>1200</v>
+        <v>5200</v>
       </c>
       <c r="H59" s="3">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="I59" s="3">
         <v>0</v>
       </c>
       <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3">
         <v>1300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2100</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8100</v>
+        <v>25800</v>
       </c>
       <c r="E60" s="3">
-        <v>16400</v>
+        <v>8500</v>
       </c>
       <c r="F60" s="3">
-        <v>30100</v>
+        <v>17000</v>
       </c>
       <c r="G60" s="3">
-        <v>11800</v>
+        <v>31300</v>
       </c>
       <c r="H60" s="3">
-        <v>13200</v>
+        <v>12200</v>
       </c>
       <c r="I60" s="3">
-        <v>16100</v>
+        <v>13700</v>
       </c>
       <c r="J60" s="3">
+        <v>16700</v>
+      </c>
+      <c r="K60" s="3">
         <v>18800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8200</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2143,53 +2285,59 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>21100</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
+        <v>22000</v>
+      </c>
+      <c r="I61" s="3">
+        <v>33300</v>
+      </c>
+      <c r="J61" s="3">
         <v>32100</v>
       </c>
-      <c r="I61" s="3">
-        <v>30900</v>
-      </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>38500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>20100</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>18400</v>
+        <v>15100</v>
       </c>
       <c r="E62" s="3">
-        <v>17800</v>
+        <v>19100</v>
       </c>
       <c r="F62" s="3">
-        <v>29900</v>
+        <v>18500</v>
       </c>
       <c r="G62" s="3">
-        <v>36200</v>
+        <v>31100</v>
       </c>
       <c r="H62" s="3">
-        <v>32100</v>
+        <v>37600</v>
       </c>
       <c r="I62" s="3">
-        <v>31000</v>
+        <v>33300</v>
       </c>
       <c r="J62" s="3">
+        <v>32200</v>
+      </c>
+      <c r="K62" s="3">
         <v>13000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>26400</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>31800</v>
+        <v>46300</v>
       </c>
       <c r="E66" s="3">
-        <v>39200</v>
+        <v>33000</v>
       </c>
       <c r="F66" s="3">
-        <v>65000</v>
+        <v>40700</v>
       </c>
       <c r="G66" s="3">
-        <v>74200</v>
+        <v>67500</v>
       </c>
       <c r="H66" s="3">
-        <v>79200</v>
+        <v>77000</v>
       </c>
       <c r="I66" s="3">
-        <v>83000</v>
+        <v>82200</v>
       </c>
       <c r="J66" s="3">
+        <v>86200</v>
+      </c>
+      <c r="K66" s="3">
         <v>75800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>35400</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-527800</v>
+        <v>-630700</v>
       </c>
       <c r="E72" s="3">
-        <v>-529800</v>
+        <v>-547900</v>
       </c>
       <c r="F72" s="3">
-        <v>-492800</v>
+        <v>-550100</v>
       </c>
       <c r="G72" s="3">
-        <v>-442200</v>
+        <v>-511600</v>
       </c>
       <c r="H72" s="3">
-        <v>-408600</v>
+        <v>-459100</v>
       </c>
       <c r="I72" s="3">
-        <v>-374900</v>
+        <v>-424200</v>
       </c>
       <c r="J72" s="3">
+        <v>-389300</v>
+      </c>
+      <c r="K72" s="3">
         <v>-322400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-197700</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>388300</v>
+        <v>332400</v>
       </c>
       <c r="E76" s="3">
-        <v>204800</v>
+        <v>403200</v>
       </c>
       <c r="F76" s="3">
-        <v>169000</v>
+        <v>212700</v>
       </c>
       <c r="G76" s="3">
-        <v>187900</v>
+        <v>175500</v>
       </c>
       <c r="H76" s="3">
-        <v>167600</v>
+        <v>195100</v>
       </c>
       <c r="I76" s="3">
-        <v>178600</v>
+        <v>174000</v>
       </c>
       <c r="J76" s="3">
+        <v>185400</v>
+      </c>
+      <c r="K76" s="3">
         <v>180200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>128500</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-82800</v>
+      </c>
+      <c r="E81" s="3">
         <v>2100</v>
       </c>
-      <c r="E81" s="3">
-        <v>-37000</v>
-      </c>
       <c r="F81" s="3">
-        <v>-50600</v>
+        <v>-38400</v>
       </c>
       <c r="G81" s="3">
-        <v>-33600</v>
+        <v>-52500</v>
       </c>
       <c r="H81" s="3">
-        <v>-37000</v>
+        <v>-34900</v>
       </c>
       <c r="I81" s="3">
-        <v>-52500</v>
+        <v>-38400</v>
       </c>
       <c r="J81" s="3">
+        <v>-54500</v>
+      </c>
+      <c r="K81" s="3">
         <v>-109500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-110400</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>4200</v>
+        <v>4500</v>
       </c>
       <c r="E83" s="3">
-        <v>3600</v>
+        <v>4400</v>
       </c>
       <c r="F83" s="3">
-        <v>1600</v>
+        <v>3700</v>
       </c>
       <c r="G83" s="3">
-        <v>5000</v>
+        <v>1700</v>
       </c>
       <c r="H83" s="3">
-        <v>6200</v>
+        <v>5200</v>
       </c>
       <c r="I83" s="3">
-        <v>5700</v>
+        <v>6400</v>
       </c>
       <c r="J83" s="3">
+        <v>5900</v>
+      </c>
+      <c r="K83" s="3">
         <v>10400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>8700</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-39000</v>
+        <v>-73700</v>
       </c>
       <c r="E89" s="3">
-        <v>-42900</v>
+        <v>-40500</v>
       </c>
       <c r="F89" s="3">
-        <v>-59100</v>
+        <v>-44500</v>
       </c>
       <c r="G89" s="3">
-        <v>-10400</v>
+        <v>-61400</v>
       </c>
       <c r="H89" s="3">
-        <v>-13800</v>
+        <v>-10800</v>
       </c>
       <c r="I89" s="3">
-        <v>-16000</v>
+        <v>-14300</v>
       </c>
       <c r="J89" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="K89" s="3">
         <v>-2800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-9800</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1800</v>
+        <v>-2800</v>
       </c>
       <c r="E91" s="3">
-        <v>-800</v>
+        <v>-1900</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-5700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4300</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>4200</v>
+        <v>-9800</v>
       </c>
       <c r="E94" s="3">
-        <v>4800</v>
+        <v>4400</v>
       </c>
       <c r="F94" s="3">
-        <v>30100</v>
+        <v>5000</v>
       </c>
       <c r="G94" s="3">
-        <v>-26900</v>
+        <v>31200</v>
       </c>
       <c r="H94" s="3">
+        <v>-27900</v>
+      </c>
+      <c r="I94" s="3">
         <v>1400</v>
       </c>
-      <c r="I94" s="3">
-        <v>-8300</v>
-      </c>
       <c r="J94" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="K94" s="3">
         <v>4600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>14200</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,8 +3291,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3088,9 +3321,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>157100</v>
+        <v>10900</v>
       </c>
       <c r="E100" s="3">
-        <v>48700</v>
+        <v>163100</v>
       </c>
       <c r="F100" s="3">
-        <v>27100</v>
+        <v>50600</v>
       </c>
       <c r="G100" s="3">
-        <v>28800</v>
+        <v>28200</v>
       </c>
       <c r="H100" s="3">
-        <v>13900</v>
+        <v>29900</v>
       </c>
       <c r="I100" s="3">
-        <v>29500</v>
+        <v>14400</v>
       </c>
       <c r="J100" s="3">
+        <v>30700</v>
+      </c>
+      <c r="K100" s="3">
         <v>1800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>600</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F101" s="3">
         <v>100</v>
       </c>
       <c r="G101" s="3">
+        <v>100</v>
+      </c>
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>100</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-200</v>
       </c>
       <c r="K101" s="3">
         <v>-200</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>122300</v>
+        <v>-72700</v>
       </c>
       <c r="E102" s="3">
-        <v>10800</v>
+        <v>127000</v>
       </c>
       <c r="F102" s="3">
+        <v>11200</v>
+      </c>
+      <c r="G102" s="3">
         <v>-1900</v>
       </c>
-      <c r="G102" s="3">
-        <v>-8500</v>
-      </c>
       <c r="H102" s="3">
-        <v>2200</v>
+        <v>-8900</v>
       </c>
       <c r="I102" s="3">
-        <v>5200</v>
+        <v>2300</v>
       </c>
       <c r="J102" s="3">
+        <v>5400</v>
+      </c>
+      <c r="K102" s="3">
         <v>3400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>4800</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/EFR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/EFR_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>17300</v>
+        <v>16900</v>
       </c>
       <c r="E8" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="F8" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="G8" s="3">
-        <v>8100</v>
+        <v>7900</v>
       </c>
       <c r="H8" s="3">
-        <v>43900</v>
+        <v>42800</v>
       </c>
       <c r="I8" s="3">
-        <v>42900</v>
+        <v>41900</v>
       </c>
       <c r="J8" s="3">
-        <v>75400</v>
+        <v>73600</v>
       </c>
       <c r="K8" s="3">
         <v>81700</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>10800</v>
+        <v>10600</v>
       </c>
       <c r="E9" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G9" s="3">
-        <v>5500</v>
+        <v>5300</v>
       </c>
       <c r="H9" s="3">
-        <v>20400</v>
+        <v>19900</v>
       </c>
       <c r="I9" s="3">
-        <v>26800</v>
+        <v>26200</v>
       </c>
       <c r="J9" s="3">
-        <v>49000</v>
+        <v>47900</v>
       </c>
       <c r="K9" s="3">
         <v>50100</v>
@@ -783,25 +783,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>6500</v>
+        <v>6300</v>
       </c>
       <c r="E10" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G10" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="H10" s="3">
-        <v>23500</v>
+        <v>22900</v>
       </c>
       <c r="I10" s="3">
-        <v>16100</v>
+        <v>15700</v>
       </c>
       <c r="J10" s="3">
-        <v>26400</v>
+        <v>25800</v>
       </c>
       <c r="K10" s="3">
         <v>31600</v>
@@ -903,19 +903,19 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="G14" s="3">
-        <v>19800</v>
+        <v>19400</v>
       </c>
       <c r="H14" s="3">
-        <v>6300</v>
+        <v>6200</v>
       </c>
       <c r="I14" s="3">
-        <v>10200</v>
+        <v>10000</v>
       </c>
       <c r="J14" s="3">
-        <v>8800</v>
+        <v>8600</v>
       </c>
       <c r="K14" s="3">
         <v>87400</v>
@@ -942,13 +942,13 @@
         <v>0</v>
       </c>
       <c r="H15" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="I15" s="3">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="J15" s="3">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="K15" s="3">
         <v>7100</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>79400</v>
+        <v>77600</v>
       </c>
       <c r="E17" s="3">
-        <v>53400</v>
+        <v>52100</v>
       </c>
       <c r="F17" s="3">
-        <v>36300</v>
+        <v>35500</v>
       </c>
       <c r="G17" s="3">
-        <v>64200</v>
+        <v>62700</v>
       </c>
       <c r="H17" s="3">
-        <v>73300</v>
+        <v>71600</v>
       </c>
       <c r="I17" s="3">
-        <v>82300</v>
+        <v>80300</v>
       </c>
       <c r="J17" s="3">
-        <v>129000</v>
+        <v>126000</v>
       </c>
       <c r="K17" s="3">
         <v>188100</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-62100</v>
+        <v>-60700</v>
       </c>
       <c r="E18" s="3">
-        <v>-49000</v>
+        <v>-47800</v>
       </c>
       <c r="F18" s="3">
-        <v>-34100</v>
+        <v>-33200</v>
       </c>
       <c r="G18" s="3">
-        <v>-56100</v>
+        <v>-54800</v>
       </c>
       <c r="H18" s="3">
-        <v>-29500</v>
+        <v>-28800</v>
       </c>
       <c r="I18" s="3">
-        <v>-39300</v>
+        <v>-38400</v>
       </c>
       <c r="J18" s="3">
-        <v>-53600</v>
+        <v>-52300</v>
       </c>
       <c r="K18" s="3">
         <v>-106400</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-20700</v>
+        <v>-20300</v>
       </c>
       <c r="E20" s="3">
-        <v>51100</v>
+        <v>49900</v>
       </c>
       <c r="F20" s="3">
-        <v>-3200</v>
+        <v>-3100</v>
       </c>
       <c r="G20" s="3">
-        <v>5500</v>
+        <v>5400</v>
       </c>
       <c r="H20" s="3">
-        <v>-3200</v>
+        <v>-3100</v>
       </c>
       <c r="I20" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="J20" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="K20" s="3">
         <v>-600</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-78400</v>
+        <v>-76500</v>
       </c>
       <c r="E21" s="3">
-        <v>6500</v>
+        <v>6300</v>
       </c>
       <c r="F21" s="3">
-        <v>-33500</v>
+        <v>-32700</v>
       </c>
       <c r="G21" s="3">
-        <v>-48900</v>
+        <v>-47800</v>
       </c>
       <c r="H21" s="3">
-        <v>-27500</v>
+        <v>-26800</v>
       </c>
       <c r="I21" s="3">
-        <v>-29400</v>
+        <v>-28700</v>
       </c>
       <c r="J21" s="3">
-        <v>-46100</v>
+        <v>-45000</v>
       </c>
       <c r="K21" s="3">
         <v>-96400</v>
@@ -1131,16 +1131,16 @@
         <v>1300</v>
       </c>
       <c r="G22" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="H22" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="I22" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="J22" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="K22" s="3">
         <v>2700</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-82900</v>
+        <v>-80900</v>
       </c>
       <c r="E23" s="3">
         <v>2000</v>
       </c>
       <c r="F23" s="3">
-        <v>-38500</v>
+        <v>-37600</v>
       </c>
       <c r="G23" s="3">
-        <v>-52700</v>
+        <v>-51400</v>
       </c>
       <c r="H23" s="3">
-        <v>-35100</v>
+        <v>-34200</v>
       </c>
       <c r="I23" s="3">
-        <v>-38700</v>
+        <v>-37800</v>
       </c>
       <c r="J23" s="3">
-        <v>-55100</v>
+        <v>-53800</v>
       </c>
       <c r="K23" s="3">
         <v>-109700</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-82900</v>
+        <v>-80900</v>
       </c>
       <c r="E26" s="3">
         <v>2000</v>
       </c>
       <c r="F26" s="3">
-        <v>-38500</v>
+        <v>-37600</v>
       </c>
       <c r="G26" s="3">
-        <v>-52700</v>
+        <v>-51400</v>
       </c>
       <c r="H26" s="3">
-        <v>-35100</v>
+        <v>-34200</v>
       </c>
       <c r="I26" s="3">
-        <v>-38700</v>
+        <v>-37800</v>
       </c>
       <c r="J26" s="3">
-        <v>-55100</v>
+        <v>-53800</v>
       </c>
       <c r="K26" s="3">
         <v>-109700</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-82800</v>
+        <v>-80800</v>
       </c>
       <c r="E27" s="3">
         <v>2100</v>
       </c>
       <c r="F27" s="3">
-        <v>-38400</v>
+        <v>-37500</v>
       </c>
       <c r="G27" s="3">
-        <v>-52500</v>
+        <v>-51300</v>
       </c>
       <c r="H27" s="3">
-        <v>-34900</v>
+        <v>-34100</v>
       </c>
       <c r="I27" s="3">
-        <v>-38400</v>
+        <v>-37500</v>
       </c>
       <c r="J27" s="3">
-        <v>-54500</v>
+        <v>-53200</v>
       </c>
       <c r="K27" s="3">
         <v>-109500</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>20700</v>
+        <v>20300</v>
       </c>
       <c r="E32" s="3">
-        <v>-51100</v>
+        <v>-49900</v>
       </c>
       <c r="F32" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="G32" s="3">
-        <v>-5500</v>
+        <v>-5400</v>
       </c>
       <c r="H32" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="I32" s="3">
-        <v>-3600</v>
+        <v>-3500</v>
       </c>
       <c r="J32" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="K32" s="3">
         <v>600</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-82800</v>
+        <v>-80800</v>
       </c>
       <c r="E33" s="3">
         <v>2100</v>
       </c>
       <c r="F33" s="3">
-        <v>-38400</v>
+        <v>-37500</v>
       </c>
       <c r="G33" s="3">
-        <v>-52500</v>
+        <v>-51300</v>
       </c>
       <c r="H33" s="3">
-        <v>-34900</v>
+        <v>-34100</v>
       </c>
       <c r="I33" s="3">
-        <v>-38400</v>
+        <v>-37500</v>
       </c>
       <c r="J33" s="3">
-        <v>-54500</v>
+        <v>-53200</v>
       </c>
       <c r="K33" s="3">
         <v>-109500</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-82800</v>
+        <v>-80800</v>
       </c>
       <c r="E35" s="3">
         <v>2100</v>
       </c>
       <c r="F35" s="3">
-        <v>-38400</v>
+        <v>-37500</v>
       </c>
       <c r="G35" s="3">
-        <v>-52500</v>
+        <v>-51300</v>
       </c>
       <c r="H35" s="3">
-        <v>-34900</v>
+        <v>-34100</v>
       </c>
       <c r="I35" s="3">
-        <v>-38400</v>
+        <v>-37500</v>
       </c>
       <c r="J35" s="3">
-        <v>-54500</v>
+        <v>-53200</v>
       </c>
       <c r="K35" s="3">
         <v>-109500</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>86900</v>
+        <v>84800</v>
       </c>
       <c r="E41" s="3">
-        <v>155600</v>
+        <v>151900</v>
       </c>
       <c r="F41" s="3">
-        <v>27900</v>
+        <v>27200</v>
       </c>
       <c r="G41" s="3">
-        <v>17700</v>
+        <v>17300</v>
       </c>
       <c r="H41" s="3">
-        <v>20200</v>
+        <v>19800</v>
       </c>
       <c r="I41" s="3">
-        <v>25700</v>
+        <v>25100</v>
       </c>
       <c r="J41" s="3">
-        <v>23400</v>
+        <v>22800</v>
       </c>
       <c r="K41" s="3">
         <v>17300</v>
@@ -1685,19 +1685,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>16900</v>
+        <v>16500</v>
       </c>
       <c r="E42" s="3">
         <v>700</v>
       </c>
       <c r="F42" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="G42" s="3">
-        <v>6700</v>
+        <v>6500</v>
       </c>
       <c r="H42" s="3">
-        <v>37400</v>
+        <v>36500</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>5</v>
@@ -1721,7 +1721,7 @@
         <v>700</v>
       </c>
       <c r="E43" s="3">
-        <v>5500</v>
+        <v>5300</v>
       </c>
       <c r="F43" s="3">
         <v>1600</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>52800</v>
+        <v>51500</v>
       </c>
       <c r="E44" s="3">
-        <v>42500</v>
+        <v>41500</v>
       </c>
       <c r="F44" s="3">
-        <v>38100</v>
+        <v>37200</v>
       </c>
       <c r="G44" s="3">
-        <v>31500</v>
+        <v>30800</v>
       </c>
       <c r="H44" s="3">
-        <v>22900</v>
+        <v>22300</v>
       </c>
       <c r="I44" s="3">
-        <v>22900</v>
+        <v>22300</v>
       </c>
       <c r="J44" s="3">
-        <v>23200</v>
+        <v>22600</v>
       </c>
       <c r="K44" s="3">
         <v>40800</v>
@@ -1784,10 +1784,10 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>30300</v>
+        <v>29600</v>
       </c>
       <c r="E45" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="F45" s="3">
         <v>1800</v>
@@ -1796,13 +1796,13 @@
         <v>2000</v>
       </c>
       <c r="H45" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="I45" s="3">
-        <v>9400</v>
+        <v>9200</v>
       </c>
       <c r="J45" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="K45" s="3">
         <v>3600</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>187500</v>
+        <v>183000</v>
       </c>
       <c r="E46" s="3">
-        <v>206400</v>
+        <v>201600</v>
       </c>
       <c r="F46" s="3">
-        <v>72600</v>
+        <v>70800</v>
       </c>
       <c r="G46" s="3">
-        <v>59700</v>
+        <v>58300</v>
       </c>
       <c r="H46" s="3">
-        <v>84100</v>
+        <v>82200</v>
       </c>
       <c r="I46" s="3">
-        <v>59700</v>
+        <v>58300</v>
       </c>
       <c r="J46" s="3">
-        <v>50000</v>
+        <v>48800</v>
       </c>
       <c r="K46" s="3">
         <v>65200</v>
@@ -1850,10 +1850,10 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>28900</v>
+        <v>28200</v>
       </c>
       <c r="E47" s="3">
-        <v>53300</v>
+        <v>52000</v>
       </c>
       <c r="F47" s="3">
         <v>1100</v>
@@ -1868,7 +1868,7 @@
         <v>1200</v>
       </c>
       <c r="J47" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="K47" s="3">
         <v>1500</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>134900</v>
+        <v>131700</v>
       </c>
       <c r="E48" s="3">
-        <v>146500</v>
+        <v>143000</v>
       </c>
       <c r="F48" s="3">
-        <v>149100</v>
+        <v>145600</v>
       </c>
       <c r="G48" s="3">
-        <v>153000</v>
+        <v>149400</v>
       </c>
       <c r="H48" s="3">
-        <v>156800</v>
+        <v>153100</v>
       </c>
       <c r="I48" s="3">
-        <v>161200</v>
+        <v>157400</v>
       </c>
       <c r="J48" s="3">
-        <v>180000</v>
+        <v>175800</v>
       </c>
       <c r="K48" s="3">
         <v>159900</v>
@@ -1931,10 +1931,10 @@
         <v>0</v>
       </c>
       <c r="I49" s="3">
-        <v>6900</v>
+        <v>6800</v>
       </c>
       <c r="J49" s="3">
-        <v>8000</v>
+        <v>7800</v>
       </c>
       <c r="K49" s="3">
         <v>12100</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>27500</v>
+        <v>26900</v>
       </c>
       <c r="E52" s="3">
-        <v>30000</v>
+        <v>29300</v>
       </c>
       <c r="F52" s="3">
-        <v>30600</v>
+        <v>29900</v>
       </c>
       <c r="G52" s="3">
-        <v>29400</v>
+        <v>28700</v>
       </c>
       <c r="H52" s="3">
-        <v>29600</v>
+        <v>28900</v>
       </c>
       <c r="I52" s="3">
-        <v>30600</v>
+        <v>29900</v>
       </c>
       <c r="J52" s="3">
-        <v>32000</v>
+        <v>31300</v>
       </c>
       <c r="K52" s="3">
         <v>17300</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>378800</v>
+        <v>369800</v>
       </c>
       <c r="E54" s="3">
-        <v>436200</v>
+        <v>425900</v>
       </c>
       <c r="F54" s="3">
-        <v>253400</v>
+        <v>247400</v>
       </c>
       <c r="G54" s="3">
-        <v>243000</v>
+        <v>237200</v>
       </c>
       <c r="H54" s="3">
-        <v>272100</v>
+        <v>265600</v>
       </c>
       <c r="I54" s="3">
-        <v>256300</v>
+        <v>250200</v>
       </c>
       <c r="J54" s="3">
-        <v>271600</v>
+        <v>265200</v>
       </c>
       <c r="K54" s="3">
         <v>256100</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5100</v>
+        <v>4900</v>
       </c>
       <c r="E57" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="F57" s="3">
         <v>700</v>
       </c>
       <c r="G57" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="H57" s="3">
-        <v>11000</v>
+        <v>10700</v>
       </c>
       <c r="I57" s="3">
-        <v>8900</v>
+        <v>8700</v>
       </c>
       <c r="J57" s="3">
-        <v>8000</v>
+        <v>7800</v>
       </c>
       <c r="K57" s="3">
         <v>12700</v>
@@ -2186,16 +2186,16 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>23300</v>
+        <v>22800</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="J58" s="3">
-        <v>8700</v>
+        <v>8500</v>
       </c>
       <c r="K58" s="3">
         <v>4800</v>
@@ -2210,16 +2210,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>20700</v>
+        <v>20200</v>
       </c>
       <c r="E59" s="3">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="F59" s="3">
-        <v>16400</v>
+        <v>16000</v>
       </c>
       <c r="G59" s="3">
-        <v>5200</v>
+        <v>5000</v>
       </c>
       <c r="H59" s="3">
         <v>1300</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>25800</v>
+        <v>25100</v>
       </c>
       <c r="E60" s="3">
-        <v>8500</v>
+        <v>8300</v>
       </c>
       <c r="F60" s="3">
-        <v>17000</v>
+        <v>16600</v>
       </c>
       <c r="G60" s="3">
-        <v>31300</v>
+        <v>30600</v>
       </c>
       <c r="H60" s="3">
-        <v>12200</v>
+        <v>12000</v>
       </c>
       <c r="I60" s="3">
-        <v>13700</v>
+        <v>13400</v>
       </c>
       <c r="J60" s="3">
-        <v>16700</v>
+        <v>16300</v>
       </c>
       <c r="K60" s="3">
         <v>18800</v>
@@ -2288,13 +2288,13 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>22000</v>
+        <v>21400</v>
       </c>
       <c r="I61" s="3">
-        <v>33300</v>
+        <v>32500</v>
       </c>
       <c r="J61" s="3">
-        <v>32100</v>
+        <v>31400</v>
       </c>
       <c r="K61" s="3">
         <v>38500</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>15100</v>
+        <v>14700</v>
       </c>
       <c r="E62" s="3">
-        <v>19100</v>
+        <v>18600</v>
       </c>
       <c r="F62" s="3">
-        <v>18500</v>
+        <v>18100</v>
       </c>
       <c r="G62" s="3">
-        <v>31100</v>
+        <v>30300</v>
       </c>
       <c r="H62" s="3">
-        <v>37600</v>
+        <v>36700</v>
       </c>
       <c r="I62" s="3">
-        <v>33300</v>
+        <v>32500</v>
       </c>
       <c r="J62" s="3">
-        <v>32200</v>
+        <v>31400</v>
       </c>
       <c r="K62" s="3">
         <v>13000</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>46300</v>
+        <v>45300</v>
       </c>
       <c r="E66" s="3">
-        <v>33000</v>
+        <v>32200</v>
       </c>
       <c r="F66" s="3">
-        <v>40700</v>
+        <v>39700</v>
       </c>
       <c r="G66" s="3">
-        <v>67500</v>
+        <v>65900</v>
       </c>
       <c r="H66" s="3">
-        <v>77000</v>
+        <v>75200</v>
       </c>
       <c r="I66" s="3">
-        <v>82200</v>
+        <v>80300</v>
       </c>
       <c r="J66" s="3">
-        <v>86200</v>
+        <v>84200</v>
       </c>
       <c r="K66" s="3">
         <v>75800</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-630700</v>
+        <v>-615800</v>
       </c>
       <c r="E72" s="3">
-        <v>-547900</v>
+        <v>-535000</v>
       </c>
       <c r="F72" s="3">
-        <v>-550100</v>
+        <v>-537000</v>
       </c>
       <c r="G72" s="3">
-        <v>-511600</v>
+        <v>-499500</v>
       </c>
       <c r="H72" s="3">
-        <v>-459100</v>
+        <v>-448300</v>
       </c>
       <c r="I72" s="3">
-        <v>-424200</v>
+        <v>-414200</v>
       </c>
       <c r="J72" s="3">
-        <v>-389300</v>
+        <v>-380100</v>
       </c>
       <c r="K72" s="3">
         <v>-322400</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>332400</v>
+        <v>324600</v>
       </c>
       <c r="E76" s="3">
-        <v>403200</v>
+        <v>393600</v>
       </c>
       <c r="F76" s="3">
-        <v>212700</v>
+        <v>207600</v>
       </c>
       <c r="G76" s="3">
-        <v>175500</v>
+        <v>171300</v>
       </c>
       <c r="H76" s="3">
-        <v>195100</v>
+        <v>190500</v>
       </c>
       <c r="I76" s="3">
-        <v>174000</v>
+        <v>169900</v>
       </c>
       <c r="J76" s="3">
-        <v>185400</v>
+        <v>181100</v>
       </c>
       <c r="K76" s="3">
         <v>180200</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-82800</v>
+        <v>-80800</v>
       </c>
       <c r="E81" s="3">
         <v>2100</v>
       </c>
       <c r="F81" s="3">
-        <v>-38400</v>
+        <v>-37500</v>
       </c>
       <c r="G81" s="3">
-        <v>-52500</v>
+        <v>-51300</v>
       </c>
       <c r="H81" s="3">
-        <v>-34900</v>
+        <v>-34100</v>
       </c>
       <c r="I81" s="3">
-        <v>-38400</v>
+        <v>-37500</v>
       </c>
       <c r="J81" s="3">
-        <v>-54500</v>
+        <v>-53200</v>
       </c>
       <c r="K81" s="3">
         <v>-109500</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="E83" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="F83" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="G83" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="H83" s="3">
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="I83" s="3">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="J83" s="3">
-        <v>5900</v>
+        <v>5700</v>
       </c>
       <c r="K83" s="3">
         <v>10400</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-73700</v>
+        <v>-71900</v>
       </c>
       <c r="E89" s="3">
-        <v>-40500</v>
+        <v>-39500</v>
       </c>
       <c r="F89" s="3">
-        <v>-44500</v>
+        <v>-43400</v>
       </c>
       <c r="G89" s="3">
-        <v>-61400</v>
+        <v>-59900</v>
       </c>
       <c r="H89" s="3">
-        <v>-10800</v>
+        <v>-10500</v>
       </c>
       <c r="I89" s="3">
-        <v>-14300</v>
+        <v>-14000</v>
       </c>
       <c r="J89" s="3">
-        <v>-16600</v>
+        <v>-16300</v>
       </c>
       <c r="K89" s="3">
         <v>-2800</v>
@@ -3151,13 +3151,13 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2800</v>
+        <v>-2700</v>
       </c>
       <c r="E91" s="3">
-        <v>-1900</v>
+        <v>-1800</v>
       </c>
       <c r="F91" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-9800</v>
+        <v>-9500</v>
       </c>
       <c r="E94" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="F94" s="3">
-        <v>5000</v>
+        <v>4800</v>
       </c>
       <c r="G94" s="3">
-        <v>31200</v>
+        <v>30500</v>
       </c>
       <c r="H94" s="3">
-        <v>-27900</v>
+        <v>-27200</v>
       </c>
       <c r="I94" s="3">
         <v>1400</v>
       </c>
       <c r="J94" s="3">
-        <v>-8700</v>
+        <v>-8500</v>
       </c>
       <c r="K94" s="3">
         <v>4600</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>10900</v>
+        <v>10600</v>
       </c>
       <c r="E100" s="3">
-        <v>163100</v>
+        <v>159200</v>
       </c>
       <c r="F100" s="3">
-        <v>50600</v>
+        <v>49400</v>
       </c>
       <c r="G100" s="3">
-        <v>28200</v>
+        <v>27500</v>
       </c>
       <c r="H100" s="3">
+        <v>29200</v>
+      </c>
+      <c r="I100" s="3">
+        <v>14100</v>
+      </c>
+      <c r="J100" s="3">
         <v>29900</v>
-      </c>
-      <c r="I100" s="3">
-        <v>14400</v>
-      </c>
-      <c r="J100" s="3">
-        <v>30700</v>
       </c>
       <c r="K100" s="3">
         <v>1800</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-72700</v>
+        <v>-70900</v>
       </c>
       <c r="E102" s="3">
-        <v>127000</v>
+        <v>124000</v>
       </c>
       <c r="F102" s="3">
-        <v>11200</v>
+        <v>10900</v>
       </c>
       <c r="G102" s="3">
         <v>-1900</v>
       </c>
       <c r="H102" s="3">
-        <v>-8900</v>
+        <v>-8700</v>
       </c>
       <c r="I102" s="3">
         <v>2300</v>
       </c>
       <c r="J102" s="3">
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="K102" s="3">
         <v>3400</v>

--- a/AAII_Financials/Yearly/EFR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/EFR_YR_FIN.xlsx
@@ -735,7 +735,7 @@
         <v>41900</v>
       </c>
       <c r="J8" s="3">
-        <v>73600</v>
+        <v>73700</v>
       </c>
       <c r="K8" s="3">
         <v>81700</v>
@@ -753,7 +753,7 @@
         <v>10600</v>
       </c>
       <c r="E9" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>5</v>
@@ -786,7 +786,7 @@
         <v>6300</v>
       </c>
       <c r="E10" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>5</v>
@@ -990,10 +990,10 @@
         <v>71600</v>
       </c>
       <c r="I17" s="3">
-        <v>80300</v>
+        <v>80400</v>
       </c>
       <c r="J17" s="3">
-        <v>126000</v>
+        <v>126100</v>
       </c>
       <c r="K17" s="3">
         <v>188100</v>
@@ -1014,7 +1014,7 @@
         <v>-47800</v>
       </c>
       <c r="F18" s="3">
-        <v>-33200</v>
+        <v>-33300</v>
       </c>
       <c r="G18" s="3">
         <v>-54800</v>
@@ -1026,7 +1026,7 @@
         <v>-38400</v>
       </c>
       <c r="J18" s="3">
-        <v>-52300</v>
+        <v>-52400</v>
       </c>
       <c r="K18" s="3">
         <v>-106400</v>
@@ -1089,7 +1089,7 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-76500</v>
+        <v>-76600</v>
       </c>
       <c r="E21" s="3">
         <v>6300</v>
@@ -1155,7 +1155,7 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-80900</v>
+        <v>-81000</v>
       </c>
       <c r="E23" s="3">
         <v>2000</v>
@@ -1164,10 +1164,10 @@
         <v>-37600</v>
       </c>
       <c r="G23" s="3">
-        <v>-51400</v>
+        <v>-51500</v>
       </c>
       <c r="H23" s="3">
-        <v>-34200</v>
+        <v>-34300</v>
       </c>
       <c r="I23" s="3">
         <v>-37800</v>
@@ -1254,7 +1254,7 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-80900</v>
+        <v>-81000</v>
       </c>
       <c r="E26" s="3">
         <v>2000</v>
@@ -1263,10 +1263,10 @@
         <v>-37600</v>
       </c>
       <c r="G26" s="3">
-        <v>-51400</v>
+        <v>-51500</v>
       </c>
       <c r="H26" s="3">
-        <v>-34200</v>
+        <v>-34300</v>
       </c>
       <c r="I26" s="3">
         <v>-37800</v>
@@ -1652,10 +1652,10 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>84800</v>
+        <v>84900</v>
       </c>
       <c r="E41" s="3">
-        <v>151900</v>
+        <v>152000</v>
       </c>
       <c r="F41" s="3">
         <v>27200</v>
@@ -1697,7 +1697,7 @@
         <v>6500</v>
       </c>
       <c r="H42" s="3">
-        <v>36500</v>
+        <v>36600</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>5</v>
@@ -1754,7 +1754,7 @@
         <v>51500</v>
       </c>
       <c r="E44" s="3">
-        <v>41500</v>
+        <v>41600</v>
       </c>
       <c r="F44" s="3">
         <v>37200</v>
@@ -1763,10 +1763,10 @@
         <v>30800</v>
       </c>
       <c r="H44" s="3">
-        <v>22300</v>
+        <v>22400</v>
       </c>
       <c r="I44" s="3">
-        <v>22300</v>
+        <v>22400</v>
       </c>
       <c r="J44" s="3">
         <v>22600</v>
@@ -1817,13 +1817,13 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>183000</v>
+        <v>183100</v>
       </c>
       <c r="E46" s="3">
-        <v>201600</v>
+        <v>201700</v>
       </c>
       <c r="F46" s="3">
-        <v>70800</v>
+        <v>70900</v>
       </c>
       <c r="G46" s="3">
         <v>58300</v>
@@ -1853,7 +1853,7 @@
         <v>28200</v>
       </c>
       <c r="E47" s="3">
-        <v>52000</v>
+        <v>52100</v>
       </c>
       <c r="F47" s="3">
         <v>1100</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>131700</v>
+        <v>131800</v>
       </c>
       <c r="E48" s="3">
-        <v>143000</v>
+        <v>143100</v>
       </c>
       <c r="F48" s="3">
         <v>145600</v>
       </c>
       <c r="G48" s="3">
-        <v>149400</v>
+        <v>149500</v>
       </c>
       <c r="H48" s="3">
         <v>153100</v>
       </c>
       <c r="I48" s="3">
-        <v>157400</v>
+        <v>157500</v>
       </c>
       <c r="J48" s="3">
-        <v>175800</v>
+        <v>175900</v>
       </c>
       <c r="K48" s="3">
         <v>159900</v>
@@ -1931,7 +1931,7 @@
         <v>0</v>
       </c>
       <c r="I49" s="3">
-        <v>6800</v>
+        <v>3400</v>
       </c>
       <c r="J49" s="3">
         <v>7800</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>369800</v>
+        <v>370000</v>
       </c>
       <c r="E54" s="3">
-        <v>425900</v>
+        <v>426100</v>
       </c>
       <c r="F54" s="3">
-        <v>247400</v>
+        <v>247500</v>
       </c>
       <c r="G54" s="3">
-        <v>237200</v>
+        <v>237300</v>
       </c>
       <c r="H54" s="3">
-        <v>265600</v>
+        <v>265800</v>
       </c>
       <c r="I54" s="3">
-        <v>250200</v>
+        <v>250300</v>
       </c>
       <c r="J54" s="3">
-        <v>265200</v>
+        <v>265400</v>
       </c>
       <c r="K54" s="3">
         <v>256100</v>
@@ -2219,7 +2219,7 @@
         <v>16000</v>
       </c>
       <c r="G59" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="H59" s="3">
         <v>1300</v>
@@ -2243,7 +2243,7 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>25100</v>
+        <v>25200</v>
       </c>
       <c r="E60" s="3">
         <v>8300</v>
@@ -2261,7 +2261,7 @@
         <v>13400</v>
       </c>
       <c r="J60" s="3">
-        <v>16300</v>
+        <v>16400</v>
       </c>
       <c r="K60" s="3">
         <v>18800</v>
@@ -2318,7 +2318,7 @@
         <v>18100</v>
       </c>
       <c r="G62" s="3">
-        <v>30300</v>
+        <v>30400</v>
       </c>
       <c r="H62" s="3">
         <v>36700</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-615800</v>
+        <v>-616100</v>
       </c>
       <c r="E72" s="3">
-        <v>-535000</v>
+        <v>-535200</v>
       </c>
       <c r="F72" s="3">
-        <v>-537000</v>
+        <v>-537300</v>
       </c>
       <c r="G72" s="3">
-        <v>-499500</v>
+        <v>-499800</v>
       </c>
       <c r="H72" s="3">
-        <v>-448300</v>
+        <v>-448500</v>
       </c>
       <c r="I72" s="3">
-        <v>-414200</v>
+        <v>-414400</v>
       </c>
       <c r="J72" s="3">
-        <v>-380100</v>
+        <v>-380300</v>
       </c>
       <c r="K72" s="3">
         <v>-322400</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>324600</v>
+        <v>324700</v>
       </c>
       <c r="E76" s="3">
-        <v>393600</v>
+        <v>393800</v>
       </c>
       <c r="F76" s="3">
-        <v>207600</v>
+        <v>207800</v>
       </c>
       <c r="G76" s="3">
-        <v>171300</v>
+        <v>171400</v>
       </c>
       <c r="H76" s="3">
-        <v>190500</v>
+        <v>190600</v>
       </c>
       <c r="I76" s="3">
-        <v>169900</v>
+        <v>170000</v>
       </c>
       <c r="J76" s="3">
-        <v>181100</v>
+        <v>181200</v>
       </c>
       <c r="K76" s="3">
         <v>180200</v>
@@ -2923,7 +2923,7 @@
         <v>6300</v>
       </c>
       <c r="J83" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="K83" s="3">
         <v>10400</v>
@@ -3103,13 +3103,13 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-71900</v>
+        <v>-72000</v>
       </c>
       <c r="E89" s="3">
-        <v>-39500</v>
+        <v>-39600</v>
       </c>
       <c r="F89" s="3">
-        <v>-43400</v>
+        <v>-43500</v>
       </c>
       <c r="G89" s="3">
         <v>-59900</v>
@@ -3433,7 +3433,7 @@
         <v>10600</v>
       </c>
       <c r="E100" s="3">
-        <v>159200</v>
+        <v>159300</v>
       </c>
       <c r="F100" s="3">
         <v>49400</v>
@@ -3448,7 +3448,7 @@
         <v>14100</v>
       </c>
       <c r="J100" s="3">
-        <v>29900</v>
+        <v>30000</v>
       </c>
       <c r="K100" s="3">
         <v>1800</v>
@@ -3496,7 +3496,7 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-70900</v>
+        <v>-71000</v>
       </c>
       <c r="E102" s="3">
         <v>124000</v>

--- a/AAII_Financials/Yearly/EFR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/EFR_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>16900</v>
+        <v>17200</v>
       </c>
       <c r="E8" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="F8" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="G8" s="3">
-        <v>7900</v>
+        <v>8100</v>
       </c>
       <c r="H8" s="3">
-        <v>42800</v>
+        <v>43600</v>
       </c>
       <c r="I8" s="3">
-        <v>41900</v>
+        <v>42700</v>
       </c>
       <c r="J8" s="3">
-        <v>73700</v>
+        <v>75000</v>
       </c>
       <c r="K8" s="3">
         <v>81700</v>
@@ -750,7 +750,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>10600</v>
+        <v>10800</v>
       </c>
       <c r="E9" s="3">
         <v>2500</v>
@@ -759,16 +759,16 @@
         <v>5</v>
       </c>
       <c r="G9" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="H9" s="3">
-        <v>19900</v>
+        <v>20300</v>
       </c>
       <c r="I9" s="3">
-        <v>26200</v>
+        <v>26700</v>
       </c>
       <c r="J9" s="3">
-        <v>47900</v>
+        <v>48800</v>
       </c>
       <c r="K9" s="3">
         <v>50100</v>
@@ -783,7 +783,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="E10" s="3">
         <v>1900</v>
@@ -795,13 +795,13 @@
         <v>2600</v>
       </c>
       <c r="H10" s="3">
-        <v>22900</v>
+        <v>23300</v>
       </c>
       <c r="I10" s="3">
-        <v>15700</v>
+        <v>16000</v>
       </c>
       <c r="J10" s="3">
-        <v>25800</v>
+        <v>26300</v>
       </c>
       <c r="K10" s="3">
         <v>31600</v>
@@ -903,19 +903,19 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="G14" s="3">
-        <v>19400</v>
+        <v>19700</v>
       </c>
       <c r="H14" s="3">
-        <v>6200</v>
+        <v>6300</v>
       </c>
       <c r="I14" s="3">
-        <v>10000</v>
+        <v>10200</v>
       </c>
       <c r="J14" s="3">
-        <v>8600</v>
+        <v>8800</v>
       </c>
       <c r="K14" s="3">
         <v>87400</v>
@@ -948,7 +948,7 @@
         <v>4500</v>
       </c>
       <c r="J15" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="K15" s="3">
         <v>7100</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>77600</v>
+        <v>79000</v>
       </c>
       <c r="E17" s="3">
-        <v>52100</v>
+        <v>53100</v>
       </c>
       <c r="F17" s="3">
-        <v>35500</v>
+        <v>36200</v>
       </c>
       <c r="G17" s="3">
-        <v>62700</v>
+        <v>63900</v>
       </c>
       <c r="H17" s="3">
-        <v>71600</v>
+        <v>72900</v>
       </c>
       <c r="I17" s="3">
-        <v>80400</v>
+        <v>81800</v>
       </c>
       <c r="J17" s="3">
-        <v>126100</v>
+        <v>128400</v>
       </c>
       <c r="K17" s="3">
         <v>188100</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-60700</v>
+        <v>-61800</v>
       </c>
       <c r="E18" s="3">
-        <v>-47800</v>
+        <v>-48700</v>
       </c>
       <c r="F18" s="3">
-        <v>-33300</v>
+        <v>-33900</v>
       </c>
       <c r="G18" s="3">
-        <v>-54800</v>
+        <v>-55800</v>
       </c>
       <c r="H18" s="3">
-        <v>-28800</v>
+        <v>-29300</v>
       </c>
       <c r="I18" s="3">
-        <v>-38400</v>
+        <v>-39100</v>
       </c>
       <c r="J18" s="3">
-        <v>-52400</v>
+        <v>-53300</v>
       </c>
       <c r="K18" s="3">
         <v>-106400</v>
@@ -1056,19 +1056,19 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-20300</v>
+        <v>-20600</v>
       </c>
       <c r="E20" s="3">
-        <v>49900</v>
+        <v>50800</v>
       </c>
       <c r="F20" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="G20" s="3">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="H20" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="I20" s="3">
         <v>3500</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-76600</v>
+        <v>-78000</v>
       </c>
       <c r="E21" s="3">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="F21" s="3">
-        <v>-32700</v>
+        <v>-33300</v>
       </c>
       <c r="G21" s="3">
-        <v>-47800</v>
+        <v>-48700</v>
       </c>
       <c r="H21" s="3">
-        <v>-26800</v>
+        <v>-27300</v>
       </c>
       <c r="I21" s="3">
-        <v>-28700</v>
+        <v>-29300</v>
       </c>
       <c r="J21" s="3">
-        <v>-45000</v>
+        <v>-45900</v>
       </c>
       <c r="K21" s="3">
         <v>-96400</v>
@@ -1131,13 +1131,13 @@
         <v>1300</v>
       </c>
       <c r="G22" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="H22" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="I22" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="J22" s="3">
         <v>3100</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-81000</v>
+        <v>-82500</v>
       </c>
       <c r="E23" s="3">
         <v>2000</v>
       </c>
       <c r="F23" s="3">
-        <v>-37600</v>
+        <v>-38300</v>
       </c>
       <c r="G23" s="3">
-        <v>-51500</v>
+        <v>-52400</v>
       </c>
       <c r="H23" s="3">
-        <v>-34300</v>
+        <v>-34900</v>
       </c>
       <c r="I23" s="3">
-        <v>-37800</v>
+        <v>-38500</v>
       </c>
       <c r="J23" s="3">
-        <v>-53800</v>
+        <v>-54800</v>
       </c>
       <c r="K23" s="3">
         <v>-109700</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-81000</v>
+        <v>-82500</v>
       </c>
       <c r="E26" s="3">
         <v>2000</v>
       </c>
       <c r="F26" s="3">
-        <v>-37600</v>
+        <v>-38300</v>
       </c>
       <c r="G26" s="3">
-        <v>-51500</v>
+        <v>-52400</v>
       </c>
       <c r="H26" s="3">
-        <v>-34300</v>
+        <v>-34900</v>
       </c>
       <c r="I26" s="3">
-        <v>-37800</v>
+        <v>-38500</v>
       </c>
       <c r="J26" s="3">
-        <v>-53800</v>
+        <v>-54800</v>
       </c>
       <c r="K26" s="3">
         <v>-109700</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-80800</v>
+        <v>-82300</v>
       </c>
       <c r="E27" s="3">
         <v>2100</v>
       </c>
       <c r="F27" s="3">
-        <v>-37500</v>
+        <v>-38200</v>
       </c>
       <c r="G27" s="3">
-        <v>-51300</v>
+        <v>-52200</v>
       </c>
       <c r="H27" s="3">
-        <v>-34100</v>
+        <v>-34700</v>
       </c>
       <c r="I27" s="3">
-        <v>-37500</v>
+        <v>-38200</v>
       </c>
       <c r="J27" s="3">
-        <v>-53200</v>
+        <v>-54200</v>
       </c>
       <c r="K27" s="3">
         <v>-109500</v>
@@ -1452,19 +1452,19 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>20300</v>
+        <v>20600</v>
       </c>
       <c r="E32" s="3">
-        <v>-49900</v>
+        <v>-50800</v>
       </c>
       <c r="F32" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="G32" s="3">
-        <v>-5400</v>
+        <v>-5500</v>
       </c>
       <c r="H32" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="I32" s="3">
         <v>-3500</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-80800</v>
+        <v>-82300</v>
       </c>
       <c r="E33" s="3">
         <v>2100</v>
       </c>
       <c r="F33" s="3">
-        <v>-37500</v>
+        <v>-38200</v>
       </c>
       <c r="G33" s="3">
-        <v>-51300</v>
+        <v>-52200</v>
       </c>
       <c r="H33" s="3">
-        <v>-34100</v>
+        <v>-34700</v>
       </c>
       <c r="I33" s="3">
-        <v>-37500</v>
+        <v>-38200</v>
       </c>
       <c r="J33" s="3">
-        <v>-53200</v>
+        <v>-54200</v>
       </c>
       <c r="K33" s="3">
         <v>-109500</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-80800</v>
+        <v>-82300</v>
       </c>
       <c r="E35" s="3">
         <v>2100</v>
       </c>
       <c r="F35" s="3">
-        <v>-37500</v>
+        <v>-38200</v>
       </c>
       <c r="G35" s="3">
-        <v>-51300</v>
+        <v>-52200</v>
       </c>
       <c r="H35" s="3">
-        <v>-34100</v>
+        <v>-34700</v>
       </c>
       <c r="I35" s="3">
-        <v>-37500</v>
+        <v>-38200</v>
       </c>
       <c r="J35" s="3">
-        <v>-53200</v>
+        <v>-54200</v>
       </c>
       <c r="K35" s="3">
         <v>-109500</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>84900</v>
+        <v>86400</v>
       </c>
       <c r="E41" s="3">
-        <v>152000</v>
+        <v>154800</v>
       </c>
       <c r="F41" s="3">
-        <v>27200</v>
+        <v>27700</v>
       </c>
       <c r="G41" s="3">
-        <v>17300</v>
+        <v>17600</v>
       </c>
       <c r="H41" s="3">
-        <v>19800</v>
+        <v>20100</v>
       </c>
       <c r="I41" s="3">
-        <v>25100</v>
+        <v>25500</v>
       </c>
       <c r="J41" s="3">
-        <v>22800</v>
+        <v>23200</v>
       </c>
       <c r="K41" s="3">
         <v>17300</v>
@@ -1685,19 +1685,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>16500</v>
+        <v>16800</v>
       </c>
       <c r="E42" s="3">
         <v>700</v>
       </c>
       <c r="F42" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="G42" s="3">
-        <v>6500</v>
+        <v>6700</v>
       </c>
       <c r="H42" s="3">
-        <v>36600</v>
+        <v>37200</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>5</v>
@@ -1721,7 +1721,7 @@
         <v>700</v>
       </c>
       <c r="E43" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="F43" s="3">
         <v>1600</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>51500</v>
+        <v>52500</v>
       </c>
       <c r="E44" s="3">
-        <v>41600</v>
+        <v>42300</v>
       </c>
       <c r="F44" s="3">
-        <v>37200</v>
+        <v>37900</v>
       </c>
       <c r="G44" s="3">
-        <v>30800</v>
+        <v>31400</v>
       </c>
       <c r="H44" s="3">
-        <v>22400</v>
+        <v>22800</v>
       </c>
       <c r="I44" s="3">
-        <v>22400</v>
+        <v>22800</v>
       </c>
       <c r="J44" s="3">
-        <v>22600</v>
+        <v>23100</v>
       </c>
       <c r="K44" s="3">
         <v>40800</v>
@@ -1784,10 +1784,10 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>29600</v>
+        <v>30100</v>
       </c>
       <c r="E45" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="F45" s="3">
         <v>1800</v>
@@ -1799,10 +1799,10 @@
         <v>1900</v>
       </c>
       <c r="I45" s="3">
-        <v>9200</v>
+        <v>9400</v>
       </c>
       <c r="J45" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="K45" s="3">
         <v>3600</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>183100</v>
+        <v>186500</v>
       </c>
       <c r="E46" s="3">
-        <v>201700</v>
+        <v>205400</v>
       </c>
       <c r="F46" s="3">
-        <v>70900</v>
+        <v>72200</v>
       </c>
       <c r="G46" s="3">
-        <v>58300</v>
+        <v>59400</v>
       </c>
       <c r="H46" s="3">
-        <v>82200</v>
+        <v>83700</v>
       </c>
       <c r="I46" s="3">
-        <v>58300</v>
+        <v>59400</v>
       </c>
       <c r="J46" s="3">
-        <v>48800</v>
+        <v>49700</v>
       </c>
       <c r="K46" s="3">
         <v>65200</v>
@@ -1850,10 +1850,10 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>28200</v>
+        <v>28700</v>
       </c>
       <c r="E47" s="3">
-        <v>52100</v>
+        <v>53000</v>
       </c>
       <c r="F47" s="3">
         <v>1100</v>
@@ -1868,7 +1868,7 @@
         <v>1200</v>
       </c>
       <c r="J47" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="K47" s="3">
         <v>1500</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>131800</v>
+        <v>134200</v>
       </c>
       <c r="E48" s="3">
-        <v>143100</v>
+        <v>145700</v>
       </c>
       <c r="F48" s="3">
-        <v>145600</v>
+        <v>148300</v>
       </c>
       <c r="G48" s="3">
-        <v>149500</v>
+        <v>152200</v>
       </c>
       <c r="H48" s="3">
-        <v>153100</v>
+        <v>156000</v>
       </c>
       <c r="I48" s="3">
-        <v>157500</v>
+        <v>160400</v>
       </c>
       <c r="J48" s="3">
-        <v>175900</v>
+        <v>179100</v>
       </c>
       <c r="K48" s="3">
         <v>159900</v>
@@ -1934,7 +1934,7 @@
         <v>3400</v>
       </c>
       <c r="J49" s="3">
-        <v>7800</v>
+        <v>8000</v>
       </c>
       <c r="K49" s="3">
         <v>12100</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>26900</v>
+        <v>27400</v>
       </c>
       <c r="E52" s="3">
-        <v>29300</v>
+        <v>29800</v>
       </c>
       <c r="F52" s="3">
-        <v>29900</v>
+        <v>30500</v>
       </c>
       <c r="G52" s="3">
-        <v>28700</v>
+        <v>29200</v>
       </c>
       <c r="H52" s="3">
-        <v>28900</v>
+        <v>29500</v>
       </c>
       <c r="I52" s="3">
-        <v>29900</v>
+        <v>30400</v>
       </c>
       <c r="J52" s="3">
-        <v>31300</v>
+        <v>31900</v>
       </c>
       <c r="K52" s="3">
         <v>17300</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>370000</v>
+        <v>376800</v>
       </c>
       <c r="E54" s="3">
-        <v>426100</v>
+        <v>433900</v>
       </c>
       <c r="F54" s="3">
-        <v>247500</v>
+        <v>252000</v>
       </c>
       <c r="G54" s="3">
-        <v>237300</v>
+        <v>241700</v>
       </c>
       <c r="H54" s="3">
-        <v>265800</v>
+        <v>270700</v>
       </c>
       <c r="I54" s="3">
-        <v>250300</v>
+        <v>254900</v>
       </c>
       <c r="J54" s="3">
-        <v>265400</v>
+        <v>270200</v>
       </c>
       <c r="K54" s="3">
         <v>256100</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="E57" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="F57" s="3">
         <v>700</v>
       </c>
       <c r="G57" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="H57" s="3">
-        <v>10700</v>
+        <v>10900</v>
       </c>
       <c r="I57" s="3">
-        <v>8700</v>
+        <v>8900</v>
       </c>
       <c r="J57" s="3">
-        <v>7800</v>
+        <v>7900</v>
       </c>
       <c r="K57" s="3">
         <v>12700</v>
@@ -2186,16 +2186,16 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>22800</v>
+        <v>23200</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="J58" s="3">
-        <v>8500</v>
+        <v>8700</v>
       </c>
       <c r="K58" s="3">
         <v>4800</v>
@@ -2210,13 +2210,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>20200</v>
+        <v>20600</v>
       </c>
       <c r="E59" s="3">
         <v>4200</v>
       </c>
       <c r="F59" s="3">
-        <v>16000</v>
+        <v>16300</v>
       </c>
       <c r="G59" s="3">
         <v>5100</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>25200</v>
+        <v>25600</v>
       </c>
       <c r="E60" s="3">
-        <v>8300</v>
+        <v>8400</v>
       </c>
       <c r="F60" s="3">
-        <v>16600</v>
+        <v>16900</v>
       </c>
       <c r="G60" s="3">
-        <v>30600</v>
+        <v>31100</v>
       </c>
       <c r="H60" s="3">
-        <v>12000</v>
+        <v>12200</v>
       </c>
       <c r="I60" s="3">
-        <v>13400</v>
+        <v>13600</v>
       </c>
       <c r="J60" s="3">
-        <v>16400</v>
+        <v>16700</v>
       </c>
       <c r="K60" s="3">
         <v>18800</v>
@@ -2288,13 +2288,13 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>21400</v>
+        <v>21800</v>
       </c>
       <c r="I61" s="3">
-        <v>32500</v>
+        <v>33100</v>
       </c>
       <c r="J61" s="3">
-        <v>31400</v>
+        <v>32000</v>
       </c>
       <c r="K61" s="3">
         <v>38500</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>14700</v>
+        <v>15000</v>
       </c>
       <c r="E62" s="3">
-        <v>18600</v>
+        <v>19000</v>
       </c>
       <c r="F62" s="3">
-        <v>18100</v>
+        <v>18400</v>
       </c>
       <c r="G62" s="3">
-        <v>30400</v>
+        <v>30900</v>
       </c>
       <c r="H62" s="3">
-        <v>36700</v>
+        <v>37400</v>
       </c>
       <c r="I62" s="3">
-        <v>32500</v>
+        <v>33100</v>
       </c>
       <c r="J62" s="3">
-        <v>31400</v>
+        <v>32000</v>
       </c>
       <c r="K62" s="3">
         <v>13000</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>45300</v>
+        <v>46100</v>
       </c>
       <c r="E66" s="3">
-        <v>32200</v>
+        <v>32800</v>
       </c>
       <c r="F66" s="3">
-        <v>39700</v>
+        <v>40500</v>
       </c>
       <c r="G66" s="3">
-        <v>65900</v>
+        <v>67100</v>
       </c>
       <c r="H66" s="3">
-        <v>75200</v>
+        <v>76600</v>
       </c>
       <c r="I66" s="3">
-        <v>80300</v>
+        <v>81800</v>
       </c>
       <c r="J66" s="3">
-        <v>84200</v>
+        <v>85700</v>
       </c>
       <c r="K66" s="3">
         <v>75800</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-616100</v>
+        <v>-627400</v>
       </c>
       <c r="E72" s="3">
-        <v>-535200</v>
+        <v>-545100</v>
       </c>
       <c r="F72" s="3">
-        <v>-537300</v>
+        <v>-547200</v>
       </c>
       <c r="G72" s="3">
-        <v>-499800</v>
+        <v>-509000</v>
       </c>
       <c r="H72" s="3">
-        <v>-448500</v>
+        <v>-456700</v>
       </c>
       <c r="I72" s="3">
-        <v>-414400</v>
+        <v>-422000</v>
       </c>
       <c r="J72" s="3">
-        <v>-380300</v>
+        <v>-387200</v>
       </c>
       <c r="K72" s="3">
         <v>-322400</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>324700</v>
+        <v>330700</v>
       </c>
       <c r="E76" s="3">
-        <v>393800</v>
+        <v>401100</v>
       </c>
       <c r="F76" s="3">
-        <v>207800</v>
+        <v>211600</v>
       </c>
       <c r="G76" s="3">
-        <v>171400</v>
+        <v>174600</v>
       </c>
       <c r="H76" s="3">
-        <v>190600</v>
+        <v>194100</v>
       </c>
       <c r="I76" s="3">
-        <v>170000</v>
+        <v>173100</v>
       </c>
       <c r="J76" s="3">
-        <v>181200</v>
+        <v>184500</v>
       </c>
       <c r="K76" s="3">
         <v>180200</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-80800</v>
+        <v>-82300</v>
       </c>
       <c r="E81" s="3">
         <v>2100</v>
       </c>
       <c r="F81" s="3">
-        <v>-37500</v>
+        <v>-38200</v>
       </c>
       <c r="G81" s="3">
-        <v>-51300</v>
+        <v>-52200</v>
       </c>
       <c r="H81" s="3">
-        <v>-34100</v>
+        <v>-34700</v>
       </c>
       <c r="I81" s="3">
-        <v>-37500</v>
+        <v>-38200</v>
       </c>
       <c r="J81" s="3">
-        <v>-53200</v>
+        <v>-54200</v>
       </c>
       <c r="K81" s="3">
         <v>-109500</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E83" s="3">
         <v>4400</v>
       </c>
-      <c r="E83" s="3">
-        <v>4300</v>
-      </c>
       <c r="F83" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="G83" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="H83" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="I83" s="3">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="J83" s="3">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="K83" s="3">
         <v>10400</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-72000</v>
+        <v>-73300</v>
       </c>
       <c r="E89" s="3">
-        <v>-39600</v>
+        <v>-40300</v>
       </c>
       <c r="F89" s="3">
-        <v>-43500</v>
+        <v>-44300</v>
       </c>
       <c r="G89" s="3">
-        <v>-59900</v>
+        <v>-61000</v>
       </c>
       <c r="H89" s="3">
-        <v>-10500</v>
+        <v>-10700</v>
       </c>
       <c r="I89" s="3">
-        <v>-14000</v>
+        <v>-14200</v>
       </c>
       <c r="J89" s="3">
-        <v>-16300</v>
+        <v>-16600</v>
       </c>
       <c r="K89" s="3">
         <v>-2800</v>
@@ -3154,10 +3154,10 @@
         <v>-2700</v>
       </c>
       <c r="E91" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="F91" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-9500</v>
+        <v>-9700</v>
       </c>
       <c r="E94" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="F94" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="G94" s="3">
-        <v>30500</v>
+        <v>31100</v>
       </c>
       <c r="H94" s="3">
-        <v>-27200</v>
+        <v>-27700</v>
       </c>
       <c r="I94" s="3">
         <v>1400</v>
       </c>
       <c r="J94" s="3">
-        <v>-8500</v>
+        <v>-8600</v>
       </c>
       <c r="K94" s="3">
         <v>4600</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>10600</v>
+        <v>10800</v>
       </c>
       <c r="E100" s="3">
-        <v>159300</v>
+        <v>162200</v>
       </c>
       <c r="F100" s="3">
-        <v>49400</v>
+        <v>50300</v>
       </c>
       <c r="G100" s="3">
-        <v>27500</v>
+        <v>28000</v>
       </c>
       <c r="H100" s="3">
-        <v>29200</v>
+        <v>29700</v>
       </c>
       <c r="I100" s="3">
-        <v>14100</v>
+        <v>14300</v>
       </c>
       <c r="J100" s="3">
-        <v>30000</v>
+        <v>30500</v>
       </c>
       <c r="K100" s="3">
         <v>1800</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-71000</v>
+        <v>-72300</v>
       </c>
       <c r="E102" s="3">
-        <v>124000</v>
+        <v>126300</v>
       </c>
       <c r="F102" s="3">
-        <v>10900</v>
+        <v>11100</v>
       </c>
       <c r="G102" s="3">
         <v>-1900</v>
       </c>
       <c r="H102" s="3">
-        <v>-8700</v>
+        <v>-8800</v>
       </c>
       <c r="I102" s="3">
         <v>2300</v>
       </c>
       <c r="J102" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="K102" s="3">
         <v>3400</v>
